--- a/outcome/fig_4_forecast_trend.xlsx
+++ b/outcome/fig_4_forecast_trend.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="386">
   <si>
     <t xml:space="preserve">measure_name</t>
   </si>
@@ -79,105 +79,198 @@
     <t xml:space="preserve">Forecasted</t>
   </si>
   <si>
+    <t xml:space="preserve">location_name.y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDI.Quintile</t>
+  </si>
+  <si>
     <t xml:space="preserve">Afghanistan</t>
   </si>
   <si>
+    <t xml:space="preserve">Islamic Republic of Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low SDI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Albania</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Albania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle SDI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Algeria</t>
   </si>
   <si>
+    <t xml:space="preserve">People's Democratic Republic of Algeria</t>
+  </si>
+  <si>
     <t xml:space="preserve">American Samoa</t>
   </si>
   <si>
+    <t xml:space="preserve">High-middle SDI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Andorra</t>
   </si>
   <si>
+    <t xml:space="preserve">Principality of Andorra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High SDI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Angola</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Angola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low-middle SDI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Antigua and Barbuda</t>
   </si>
   <si>
     <t xml:space="preserve">Argentina</t>
   </si>
   <si>
+    <t xml:space="preserve">Argentine Republic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Armenia</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Armenia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Australia</t>
   </si>
   <si>
     <t xml:space="preserve">Austria</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Austria</t>
+  </si>
+  <si>
     <t xml:space="preserve">Azerbaijan</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Azerbaijan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bahamas</t>
   </si>
   <si>
+    <t xml:space="preserve">Commonwealth of the Bahamas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bahrain</t>
   </si>
   <si>
+    <t xml:space="preserve">Kingdom of Bahrain</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bangladesh</t>
   </si>
   <si>
+    <t xml:space="preserve">People's Republic of Bangladesh</t>
+  </si>
+  <si>
     <t xml:space="preserve">Barbados</t>
   </si>
   <si>
     <t xml:space="preserve">Belarus</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Belarus</t>
+  </si>
+  <si>
     <t xml:space="preserve">Belgium</t>
   </si>
   <si>
+    <t xml:space="preserve">Kingdom of Belgium</t>
+  </si>
+  <si>
     <t xml:space="preserve">Belize</t>
   </si>
   <si>
     <t xml:space="preserve">Benin</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Benin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bermuda</t>
   </si>
   <si>
     <t xml:space="preserve">Bhutan</t>
   </si>
   <si>
+    <t xml:space="preserve">Kingdom of Bhutan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bolivia (Plurinational State of)</t>
   </si>
   <si>
+    <t xml:space="preserve">Plurinational State of Bolivia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bosnia and Herzegovina</t>
   </si>
   <si>
     <t xml:space="preserve">Botswana</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Botswana</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brazil</t>
   </si>
   <si>
+    <t xml:space="preserve">Federative Republic of Brazil</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brunei Darussalam</t>
   </si>
   <si>
     <t xml:space="preserve">Bulgaria</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Bulgaria</t>
+  </si>
+  <si>
     <t xml:space="preserve">Burkina Faso</t>
   </si>
   <si>
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Burundi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cabo Verde</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Cabo Verde</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cambodia</t>
   </si>
   <si>
+    <t xml:space="preserve">Kingdom of Cambodia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cameroon</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Cameroon</t>
+  </si>
+  <si>
     <t xml:space="preserve">Canada</t>
   </si>
   <si>
@@ -187,42 +280,78 @@
     <t xml:space="preserve">Chad</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Chad</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chile</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Chile</t>
+  </si>
+  <si>
     <t xml:space="preserve">China</t>
   </si>
   <si>
+    <t xml:space="preserve">People's Republic of China</t>
+  </si>
+  <si>
     <t xml:space="preserve">Colombia</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Colombia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Comoros</t>
   </si>
   <si>
+    <t xml:space="preserve">Union of the Comoros</t>
+  </si>
+  <si>
     <t xml:space="preserve">Congo</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of the Congo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cook Islands</t>
   </si>
   <si>
     <t xml:space="preserve">Costa Rica</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Costa Rica</t>
+  </si>
+  <si>
     <t xml:space="preserve">Croatia</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Croatia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cuba</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Cuba</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cyprus</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Cyprus</t>
+  </si>
+  <si>
     <t xml:space="preserve">Czechia</t>
   </si>
   <si>
+    <t xml:space="preserve">Czech Republic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Côte d'Ivoire</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Côte d'Ivoire</t>
+  </si>
+  <si>
     <t xml:space="preserve">Democratic People's Republic of Korea</t>
   </si>
   <si>
@@ -232,66 +361,123 @@
     <t xml:space="preserve">Denmark</t>
   </si>
   <si>
+    <t xml:space="preserve">Kingdom of Denmark</t>
+  </si>
+  <si>
     <t xml:space="preserve">Djibouti</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Djibouti</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dominica</t>
   </si>
   <si>
+    <t xml:space="preserve">Commonwealth of Dominica</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dominican Republic</t>
   </si>
   <si>
     <t xml:space="preserve">Ecuador</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Ecuador</t>
+  </si>
+  <si>
     <t xml:space="preserve">Egypt</t>
   </si>
   <si>
+    <t xml:space="preserve">Arab Republic of Egypt</t>
+  </si>
+  <si>
     <t xml:space="preserve">El Salvador</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of El Salvador</t>
+  </si>
+  <si>
     <t xml:space="preserve">Equatorial Guinea</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Equatorial Guinea</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eritrea</t>
   </si>
   <si>
+    <t xml:space="preserve">State of Eritrea</t>
+  </si>
+  <si>
     <t xml:space="preserve">Estonia</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Estonia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eswatini</t>
   </si>
   <si>
+    <t xml:space="preserve">Kingdom of Eswatini</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ethiopia</t>
   </si>
   <si>
+    <t xml:space="preserve">Federal Democratic Republic of Ethiopia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fiji</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Fiji</t>
+  </si>
+  <si>
     <t xml:space="preserve">Finland</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Finland</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
+    <t xml:space="preserve">French Republic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gabon</t>
   </si>
   <si>
+    <t xml:space="preserve">Gabonese Republic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gambia</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of the Gambia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Georgia</t>
   </si>
   <si>
     <t xml:space="preserve">Germany</t>
   </si>
   <si>
+    <t xml:space="preserve">Federal Republic of Germany</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ghana</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Ghana</t>
+  </si>
+  <si>
     <t xml:space="preserve">Greece</t>
   </si>
   <si>
+    <t xml:space="preserve">Hellenic Republic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Greenland</t>
   </si>
   <si>
@@ -304,48 +490,87 @@
     <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Guatemala</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guinea</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Guinea</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guinea-Bissau</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Guinea-Bissau</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guyana</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Guyana</t>
+  </si>
+  <si>
     <t xml:space="preserve">Haiti</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Haiti</t>
+  </si>
+  <si>
     <t xml:space="preserve">Honduras</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Honduras</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hungary</t>
   </si>
   <si>
     <t xml:space="preserve">Iceland</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Iceland</t>
+  </si>
+  <si>
     <t xml:space="preserve">India</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of India</t>
+  </si>
+  <si>
     <t xml:space="preserve">Indonesia</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Indonesia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Iran (Islamic Republic of)</t>
   </si>
   <si>
+    <t xml:space="preserve">Islamic Republic of Iran</t>
+  </si>
+  <si>
     <t xml:space="preserve">Iraq</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Iraq</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ireland</t>
   </si>
   <si>
     <t xml:space="preserve">Israel</t>
   </si>
   <si>
+    <t xml:space="preserve">State of Israel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Italy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jamaica</t>
   </si>
   <si>
@@ -355,81 +580,153 @@
     <t xml:space="preserve">Jordan</t>
   </si>
   <si>
+    <t xml:space="preserve">Hashemite Kingdom of Jordan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kazakhstan</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Kazakhstan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kenya</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Kenya</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kiribati</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Kiribati</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kuwait</t>
   </si>
   <si>
+    <t xml:space="preserve">State of Kuwait</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kyrgyzstan</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyrgyz Republic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lao People's Democratic Republic</t>
   </si>
   <si>
     <t xml:space="preserve">Latvia</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Latvia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lebanon</t>
   </si>
   <si>
+    <t xml:space="preserve">Lebanese Republic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lesotho</t>
   </si>
   <si>
+    <t xml:space="preserve">Kingdom of Lesotho</t>
+  </si>
+  <si>
     <t xml:space="preserve">Liberia</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Liberia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Libya</t>
   </si>
   <si>
+    <t xml:space="preserve">State of Libya</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lithuania</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Lithuania</t>
+  </si>
+  <si>
     <t xml:space="preserve">Luxembourg</t>
   </si>
   <si>
+    <t xml:space="preserve">Grand Duchy of Luxembourg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Madagascar</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Madagascar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Malawi</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Malawi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Malaysia</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Maldives</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mali</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Mali</t>
+  </si>
+  <si>
     <t xml:space="preserve">Malta</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Malta</t>
+  </si>
+  <si>
     <t xml:space="preserve">Marshall Islands</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of the Marshall Islands</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mauritania</t>
   </si>
   <si>
+    <t xml:space="preserve">Islamic Republic of Mauritania</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mauritius</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Mauritius</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mexico</t>
   </si>
   <si>
+    <t xml:space="preserve">United Mexican States</t>
+  </si>
+  <si>
     <t xml:space="preserve">Micronesia (Federated States of)</t>
   </si>
   <si>
+    <t xml:space="preserve">Federated States of Micronesia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Monaco</t>
   </si>
   <si>
+    <t xml:space="preserve">Principality of Monaco</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mongolia</t>
   </si>
   <si>
@@ -439,39 +736,72 @@
     <t xml:space="preserve">Morocco</t>
   </si>
   <si>
+    <t xml:space="preserve">Kingdom of Morocco</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mozambique</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Mozambique</t>
+  </si>
+  <si>
     <t xml:space="preserve">Myanmar</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of the Union of Myanmar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Namibia</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Namibia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nauru</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Nauru</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nepal</t>
   </si>
   <si>
+    <t xml:space="preserve">Federal Democratic Republic of Nepal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Netherlands</t>
   </si>
   <si>
+    <t xml:space="preserve">Kingdom of the Netherlands</t>
+  </si>
+  <si>
     <t xml:space="preserve">New Zealand</t>
   </si>
   <si>
     <t xml:space="preserve">Nicaragua</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Nicaragua</t>
+  </si>
+  <si>
     <t xml:space="preserve">Niger</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of the Niger</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nigeria</t>
   </si>
   <si>
+    <t xml:space="preserve">Federal Republic of Nigeria</t>
+  </si>
+  <si>
     <t xml:space="preserve">Niue</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Niue</t>
+  </si>
+  <si>
     <t xml:space="preserve">North Macedonia</t>
   </si>
   <si>
@@ -481,45 +811,81 @@
     <t xml:space="preserve">Norway</t>
   </si>
   <si>
+    <t xml:space="preserve">Kingdom of Norway</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oman</t>
   </si>
   <si>
+    <t xml:space="preserve">Sultanate of Oman</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pakistan</t>
   </si>
   <si>
+    <t xml:space="preserve">Islamic Republic of Pakistan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Palau</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Palau</t>
+  </si>
+  <si>
     <t xml:space="preserve">Palestine</t>
   </si>
   <si>
     <t xml:space="preserve">Panama</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Panama</t>
+  </si>
+  <si>
     <t xml:space="preserve">Papua New Guinea</t>
   </si>
   <si>
+    <t xml:space="preserve">Independent State of Papua New Guinea</t>
+  </si>
+  <si>
     <t xml:space="preserve">Paraguay</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Paraguay</t>
+  </si>
+  <si>
     <t xml:space="preserve">Peru</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Peru</t>
+  </si>
+  <si>
     <t xml:space="preserve">Philippines</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of the Philippines</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poland</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Poland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Portugal</t>
   </si>
   <si>
+    <t xml:space="preserve">Portuguese Republic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Puerto Rico</t>
   </si>
   <si>
     <t xml:space="preserve">Qatar</t>
   </si>
   <si>
+    <t xml:space="preserve">State of Qatar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Republic of Korea</t>
   </si>
   <si>
@@ -535,6 +901,9 @@
     <t xml:space="preserve">Rwanda</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Rwanda</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saint Kitts and Nevis</t>
   </si>
   <si>
@@ -547,66 +916,126 @@
     <t xml:space="preserve">Samoa</t>
   </si>
   <si>
+    <t xml:space="preserve">Independent State of Samoa</t>
+  </si>
+  <si>
     <t xml:space="preserve">San Marino</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of San Marino</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sao Tome and Principe</t>
   </si>
   <si>
+    <t xml:space="preserve">Democratic Republic of Sao Tome and Principe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
+    <t xml:space="preserve">Kingdom of Saudi Arabia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Senegal</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Senegal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Serbia</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Serbia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Seychelles</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Seychelles</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sierra Leone</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Sierra Leone</t>
+  </si>
+  <si>
     <t xml:space="preserve">Singapore</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Singapore</t>
+  </si>
+  <si>
     <t xml:space="preserve">Slovakia</t>
   </si>
   <si>
+    <t xml:space="preserve">Slovak Republic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Slovenia</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Slovenia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Solomon Islands</t>
   </si>
   <si>
     <t xml:space="preserve">Somalia</t>
   </si>
   <si>
+    <t xml:space="preserve">Federal Republic of Somalia</t>
+  </si>
+  <si>
     <t xml:space="preserve">South Africa</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of South Africa</t>
+  </si>
+  <si>
     <t xml:space="preserve">South Sudan</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of South Sudan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spain</t>
   </si>
   <si>
+    <t xml:space="preserve">Kingdom of Spain</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sri Lanka</t>
   </si>
   <si>
+    <t xml:space="preserve">Democratic Socialist Republic of Sri Lanka</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sudan</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Sudan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Suriname</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Suriname</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sweden</t>
   </si>
   <si>
+    <t xml:space="preserve">Kingdom of Sweden</t>
+  </si>
+  <si>
     <t xml:space="preserve">Switzerland</t>
   </si>
   <si>
+    <t xml:space="preserve">Swiss Confederation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Syrian Arab Republic</t>
   </si>
   <si>
@@ -616,27 +1045,48 @@
     <t xml:space="preserve">Tajikistan</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Tajikistan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thailand</t>
   </si>
   <si>
+    <t xml:space="preserve">Kingdom of Thailand</t>
+  </si>
+  <si>
     <t xml:space="preserve">Timor-Leste</t>
   </si>
   <si>
+    <t xml:space="preserve">Democratic Republic of Timor-Leste</t>
+  </si>
+  <si>
     <t xml:space="preserve">Togo</t>
   </si>
   <si>
+    <t xml:space="preserve">Togolese Republic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tokelau</t>
   </si>
   <si>
     <t xml:space="preserve">Tonga</t>
   </si>
   <si>
+    <t xml:space="preserve">Kingdom of Tonga</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trinidad and Tobago</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Trinidad and Tobago</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tunisia</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Tunisia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Turkmenistan</t>
   </si>
   <si>
@@ -646,9 +1096,15 @@
     <t xml:space="preserve">Türkiye</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Turkey</t>
+  </si>
+  <si>
     <t xml:space="preserve">Uganda</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Uganda</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ukraine</t>
   </si>
   <si>
@@ -658,6 +1114,9 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
+    <t xml:space="preserve">United Kingdom of Great Britain and Northern Ireland</t>
+  </si>
+  <si>
     <t xml:space="preserve">United Republic of Tanzania</t>
   </si>
   <si>
@@ -670,25 +1129,49 @@
     <t xml:space="preserve">Uruguay</t>
   </si>
   <si>
+    <t xml:space="preserve">Eastern Republic of Uruguay</t>
+  </si>
+  <si>
     <t xml:space="preserve">Uzbekistan</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Uzbekistan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vanuatu</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Vanuatu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Venezuela (Bolivarian Republic of)</t>
   </si>
   <si>
+    <t xml:space="preserve">Bolivarian Republic of Venezuela</t>
+  </si>
+  <si>
     <t xml:space="preserve">Viet Nam</t>
   </si>
   <si>
+    <t xml:space="preserve">Socialist Republic of Viet Nam</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yemen</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Yemen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zambia</t>
   </si>
   <si>
+    <t xml:space="preserve">Republic of Zambia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Zimbabwe</t>
   </si>
 </sst>
 </file>
@@ -751,28 +1234,32 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E205" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:E205"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G205" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:G205"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="location_name"/>
     <tableColumn id="2" name="Observed"/>
     <tableColumn id="3" name="Forecasted"/>
     <tableColumn id="4" name="val"/>
     <tableColumn id="5" name="color"/>
+    <tableColumn id="6" name="location_name.y"/>
+    <tableColumn id="7" name="SDI.Quintile"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:E205" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:E205"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:G205" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:G205"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="location_name"/>
     <tableColumn id="2" name="Observed"/>
     <tableColumn id="3" name="Forecasted"/>
     <tableColumn id="4" name="val"/>
     <tableColumn id="5" name="color"/>
+    <tableColumn id="6" name="location_name.y"/>
+    <tableColumn id="7" name="SDI.Quintile"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1476,10 +1963,16 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="n">
         <v>2449.3938280092</v>
@@ -1493,10 +1986,16 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B3" t="n">
         <v>6.20370187740537</v>
@@ -1510,10 +2009,16 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B4" t="n">
         <v>1948.24952778562</v>
@@ -1527,10 +2032,16 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B5" t="n">
         <v>0.638966581048625</v>
@@ -1544,10 +2055,16 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B6" t="n">
         <v>0.616424918046914</v>
@@ -1561,10 +2078,16 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B7" t="n">
         <v>7005.09813688828</v>
@@ -1578,10 +2101,16 @@
       <c r="E7" t="s">
         <v>8</v>
       </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B8" t="n">
         <v>1.92003657789676</v>
@@ -1595,10 +2124,16 @@
       <c r="E8" t="s">
         <v>8</v>
       </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B9" t="n">
         <v>601.491947721953</v>
@@ -1612,10 +2147,16 @@
       <c r="E9" t="s">
         <v>8</v>
       </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B10" t="n">
         <v>243.105876064746</v>
@@ -1629,10 +2170,16 @@
       <c r="E10" t="s">
         <v>8</v>
       </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B11" t="n">
         <v>80.2403529438587</v>
@@ -1646,10 +2193,16 @@
       <c r="E11" t="s">
         <v>8</v>
       </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B12" t="n">
         <v>336.892617551052</v>
@@ -1663,10 +2216,16 @@
       <c r="E12" t="s">
         <v>8</v>
       </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n">
         <v>1428.0216756182</v>
@@ -1680,10 +2239,16 @@
       <c r="E13" t="s">
         <v>8</v>
       </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B14" t="n">
         <v>11.1196717339662</v>
@@ -1697,10 +2262,16 @@
       <c r="E14" t="s">
         <v>8</v>
       </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B15" t="n">
         <v>58.1290946422212</v>
@@ -1714,10 +2285,16 @@
       <c r="E15" t="s">
         <v>8</v>
       </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B16" t="n">
         <v>4507.96731715046</v>
@@ -1731,10 +2308,16 @@
       <c r="E16" t="s">
         <v>8</v>
       </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B17" t="n">
         <v>7.73939067160957</v>
@@ -1748,10 +2331,16 @@
       <c r="E17" t="s">
         <v>8</v>
       </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B18" t="n">
         <v>101.591464123145</v>
@@ -1765,10 +2354,16 @@
       <c r="E18" t="s">
         <v>8</v>
       </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B19" t="n">
         <v>134.80189719158</v>
@@ -1782,10 +2377,16 @@
       <c r="E19" t="s">
         <v>8</v>
       </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B20" t="n">
         <v>16.6388069927463</v>
@@ -1799,10 +2400,16 @@
       <c r="E20" t="s">
         <v>8</v>
       </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B21" t="n">
         <v>856.141605935704</v>
@@ -1816,10 +2423,16 @@
       <c r="E21" t="s">
         <v>8</v>
       </c>
+      <c r="F21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B22" t="n">
         <v>0.346022499208353</v>
@@ -1833,10 +2446,16 @@
       <c r="E22" t="s">
         <v>8</v>
       </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B23" t="n">
         <v>1.84007402107868</v>
@@ -1850,10 +2469,16 @@
       <c r="E23" t="s">
         <v>8</v>
       </c>
+      <c r="F23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B24" t="n">
         <v>102.845425206818</v>
@@ -1867,10 +2492,16 @@
       <c r="E24" t="s">
         <v>8</v>
       </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B25" t="n">
         <v>265.302561624204</v>
@@ -1884,10 +2515,16 @@
       <c r="E25" t="s">
         <v>8</v>
       </c>
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B26" t="n">
         <v>60.3940884275924</v>
@@ -1901,10 +2538,16 @@
       <c r="E26" t="s">
         <v>8</v>
       </c>
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B27" t="n">
         <v>10644.0906487129</v>
@@ -1918,10 +2561,14 @@
       <c r="E27" t="s">
         <v>8</v>
       </c>
+      <c r="F27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B28" t="n">
         <v>3.7264925599309</v>
@@ -1935,10 +2582,16 @@
       <c r="E28" t="s">
         <v>8</v>
       </c>
+      <c r="F28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B29" t="n">
         <v>251.976978506229</v>
@@ -1952,10 +2605,16 @@
       <c r="E29" t="s">
         <v>8</v>
       </c>
+      <c r="F29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="B30" t="n">
         <v>679.056120774134</v>
@@ -1969,10 +2628,16 @@
       <c r="E30" t="s">
         <v>8</v>
       </c>
+      <c r="F30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B31" t="n">
         <v>252.423314581485</v>
@@ -1986,10 +2651,16 @@
       <c r="E31" t="s">
         <v>8</v>
       </c>
+      <c r="F31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B32" t="n">
         <v>3.61137368016153</v>
@@ -2003,10 +2674,16 @@
       <c r="E32" t="s">
         <v>8</v>
       </c>
+      <c r="F32" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B33" t="n">
         <v>446.848097000937</v>
@@ -2020,10 +2697,16 @@
       <c r="E33" t="s">
         <v>8</v>
       </c>
+      <c r="F33" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B34" t="n">
         <v>2495.13944827079</v>
@@ -2037,10 +2720,16 @@
       <c r="E34" t="s">
         <v>8</v>
       </c>
+      <c r="F34" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="B35" t="n">
         <v>1920.85938792509</v>
@@ -2054,10 +2743,16 @@
       <c r="E35" t="s">
         <v>8</v>
       </c>
+      <c r="F35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="B36" t="n">
         <v>1296.18023404704</v>
@@ -2071,10 +2766,16 @@
       <c r="E36" t="s">
         <v>8</v>
       </c>
+      <c r="F36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="B37" t="n">
         <v>2217.70366247688</v>
@@ -2088,10 +2789,16 @@
       <c r="E37" t="s">
         <v>8</v>
       </c>
+      <c r="F37" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="B38" t="n">
         <v>64.8685783189429</v>
@@ -2105,10 +2812,16 @@
       <c r="E38" t="s">
         <v>8</v>
       </c>
+      <c r="F38" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B39" t="n">
         <v>25200.62617057</v>
@@ -2122,10 +2835,14 @@
       <c r="E39" t="s">
         <v>8</v>
       </c>
+      <c r="F39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="B40" t="n">
         <v>1202.53817234636</v>
@@ -2139,10 +2856,16 @@
       <c r="E40" t="s">
         <v>8</v>
       </c>
+      <c r="F40" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="B41" t="n">
         <v>50.6068444821818</v>
@@ -2156,10 +2879,16 @@
       <c r="E41" t="s">
         <v>8</v>
       </c>
+      <c r="F41" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B42" t="n">
         <v>1057.41942143261</v>
@@ -2173,10 +2902,16 @@
       <c r="E42" t="s">
         <v>8</v>
       </c>
+      <c r="F42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="B43" t="n">
         <v>0.171251690489477</v>
@@ -2190,10 +2925,16 @@
       <c r="E43" t="s">
         <v>8</v>
       </c>
+      <c r="F43" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="B44" t="n">
         <v>15.9980183798856</v>
@@ -2207,10 +2948,16 @@
       <c r="E44" t="s">
         <v>8</v>
       </c>
+      <c r="F44" t="s">
+        <v>101</v>
+      </c>
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="B45" t="n">
         <v>127.193295228519</v>
@@ -2224,10 +2971,16 @@
       <c r="E45" t="s">
         <v>8</v>
       </c>
+      <c r="F45" t="s">
+        <v>103</v>
+      </c>
+      <c r="G45" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="B46" t="n">
         <v>210.399844862262</v>
@@ -2241,10 +2994,16 @@
       <c r="E46" t="s">
         <v>8</v>
       </c>
+      <c r="F46" t="s">
+        <v>105</v>
+      </c>
+      <c r="G46" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="B47" t="n">
         <v>24.0096117382443</v>
@@ -2258,10 +3017,16 @@
       <c r="E47" t="s">
         <v>8</v>
       </c>
+      <c r="F47" t="s">
+        <v>107</v>
+      </c>
+      <c r="G47" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B48" t="n">
         <v>196.342578952223</v>
@@ -2275,10 +3040,16 @@
       <c r="E48" t="s">
         <v>8</v>
       </c>
+      <c r="F48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="B49" t="n">
         <v>2385.276210934</v>
@@ -2292,10 +3063,16 @@
       <c r="E49" t="s">
         <v>8</v>
       </c>
+      <c r="F49" t="s">
+        <v>111</v>
+      </c>
+      <c r="G49" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="B50" t="n">
         <v>85.8246956012549</v>
@@ -2309,10 +3086,16 @@
       <c r="E50" t="s">
         <v>8</v>
       </c>
+      <c r="F50" t="s">
+        <v>112</v>
+      </c>
+      <c r="G50" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="B51" t="n">
         <v>18439.9428156409</v>
@@ -2326,10 +3109,16 @@
       <c r="E51" t="s">
         <v>8</v>
       </c>
+      <c r="F51" t="s">
+        <v>113</v>
+      </c>
+      <c r="G51" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="B52" t="n">
         <v>71.0876474793583</v>
@@ -2343,10 +3132,16 @@
       <c r="E52" t="s">
         <v>8</v>
       </c>
+      <c r="F52" t="s">
+        <v>115</v>
+      </c>
+      <c r="G52" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="B53" t="n">
         <v>188.165638172297</v>
@@ -2360,10 +3155,16 @@
       <c r="E53" t="s">
         <v>8</v>
       </c>
+      <c r="F53" t="s">
+        <v>117</v>
+      </c>
+      <c r="G53" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="B54" t="n">
         <v>1.13987585209896</v>
@@ -2377,10 +3178,16 @@
       <c r="E54" t="s">
         <v>8</v>
       </c>
+      <c r="F54" t="s">
+        <v>119</v>
+      </c>
+      <c r="G54" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="B55" t="n">
         <v>667.425691460928</v>
@@ -2394,10 +3201,16 @@
       <c r="E55" t="s">
         <v>8</v>
       </c>
+      <c r="F55" t="s">
+        <v>120</v>
+      </c>
+      <c r="G55" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="B56" t="n">
         <v>1155.02832914214</v>
@@ -2411,10 +3224,16 @@
       <c r="E56" t="s">
         <v>8</v>
       </c>
+      <c r="F56" t="s">
+        <v>122</v>
+      </c>
+      <c r="G56" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="B57" t="n">
         <v>3529.85594802977</v>
@@ -2428,10 +3247,16 @@
       <c r="E57" t="s">
         <v>8</v>
       </c>
+      <c r="F57" t="s">
+        <v>124</v>
+      </c>
+      <c r="G57" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="B58" t="n">
         <v>43.4164077181159</v>
@@ -2445,10 +3270,16 @@
       <c r="E58" t="s">
         <v>8</v>
       </c>
+      <c r="F58" t="s">
+        <v>126</v>
+      </c>
+      <c r="G58" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="B59" t="n">
         <v>303.573195325303</v>
@@ -2462,10 +3293,16 @@
       <c r="E59" t="s">
         <v>8</v>
       </c>
+      <c r="F59" t="s">
+        <v>128</v>
+      </c>
+      <c r="G59" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="B60" t="n">
         <v>247.220588586895</v>
@@ -2479,10 +3316,16 @@
       <c r="E60" t="s">
         <v>8</v>
       </c>
+      <c r="F60" t="s">
+        <v>130</v>
+      </c>
+      <c r="G60" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="B61" t="n">
         <v>13.5405247816831</v>
@@ -2496,10 +3339,16 @@
       <c r="E61" t="s">
         <v>8</v>
       </c>
+      <c r="F61" t="s">
+        <v>132</v>
+      </c>
+      <c r="G61" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="B62" t="n">
         <v>19.1426715229263</v>
@@ -2513,10 +3362,16 @@
       <c r="E62" t="s">
         <v>8</v>
       </c>
+      <c r="F62" t="s">
+        <v>134</v>
+      </c>
+      <c r="G62" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="B63" t="n">
         <v>11509.7964687143</v>
@@ -2530,10 +3385,14 @@
       <c r="E63" t="s">
         <v>8</v>
       </c>
+      <c r="F63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="B64" t="n">
         <v>7.82469433935295</v>
@@ -2547,10 +3406,16 @@
       <c r="E64" t="s">
         <v>8</v>
       </c>
+      <c r="F64" t="s">
+        <v>138</v>
+      </c>
+      <c r="G64" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="B65" t="n">
         <v>126.239034789382</v>
@@ -2564,10 +3429,16 @@
       <c r="E65" t="s">
         <v>8</v>
       </c>
+      <c r="F65" t="s">
+        <v>140</v>
+      </c>
+      <c r="G65" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="B66" t="n">
         <v>1069.77700569682</v>
@@ -2581,10 +3452,16 @@
       <c r="E66" t="s">
         <v>8</v>
       </c>
+      <c r="F66" t="s">
+        <v>142</v>
+      </c>
+      <c r="G66" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="B67" t="n">
         <v>274.77931552326</v>
@@ -2598,10 +3475,16 @@
       <c r="E67" t="s">
         <v>8</v>
       </c>
+      <c r="F67" t="s">
+        <v>144</v>
+      </c>
+      <c r="G67" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="B68" t="n">
         <v>90.4476767442433</v>
@@ -2615,10 +3498,16 @@
       <c r="E68" t="s">
         <v>8</v>
       </c>
+      <c r="F68" t="s">
+        <v>146</v>
+      </c>
+      <c r="G68" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="B69" t="n">
         <v>161.071095017375</v>
@@ -2632,10 +3521,16 @@
       <c r="E69" t="s">
         <v>8</v>
       </c>
+      <c r="F69" t="s">
+        <v>147</v>
+      </c>
+      <c r="G69" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="B70" t="n">
         <v>1101.35409080185</v>
@@ -2649,10 +3544,16 @@
       <c r="E70" t="s">
         <v>8</v>
       </c>
+      <c r="F70" t="s">
+        <v>149</v>
+      </c>
+      <c r="G70" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="B71" t="n">
         <v>1287.39139052302</v>
@@ -2666,10 +3567,16 @@
       <c r="E71" t="s">
         <v>8</v>
       </c>
+      <c r="F71" t="s">
+        <v>151</v>
+      </c>
+      <c r="G71" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="B72" t="n">
         <v>23.8061228887888</v>
@@ -2683,10 +3590,16 @@
       <c r="E72" t="s">
         <v>8</v>
       </c>
+      <c r="F72" t="s">
+        <v>153</v>
+      </c>
+      <c r="G72" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="B73" t="n">
         <v>1.72360461681987</v>
@@ -2700,10 +3613,16 @@
       <c r="E73" t="s">
         <v>8</v>
       </c>
+      <c r="F73" t="s">
+        <v>154</v>
+      </c>
+      <c r="G73" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="B74" t="n">
         <v>3.45867899153344</v>
@@ -2717,10 +3636,16 @@
       <c r="E74" t="s">
         <v>8</v>
       </c>
+      <c r="F74" t="s">
+        <v>155</v>
+      </c>
+      <c r="G74" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="B75" t="n">
         <v>1.09063089887443</v>
@@ -2734,10 +3659,16 @@
       <c r="E75" t="s">
         <v>8</v>
       </c>
+      <c r="F75" t="s">
+        <v>156</v>
+      </c>
+      <c r="G75" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="B76" t="n">
         <v>1003.47300061223</v>
@@ -2751,10 +3682,16 @@
       <c r="E76" t="s">
         <v>8</v>
       </c>
+      <c r="F76" t="s">
+        <v>158</v>
+      </c>
+      <c r="G76" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="B77" t="n">
         <v>1802.18331656749</v>
@@ -2768,10 +3705,16 @@
       <c r="E77" t="s">
         <v>8</v>
       </c>
+      <c r="F77" t="s">
+        <v>160</v>
+      </c>
+      <c r="G77" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="B78" t="n">
         <v>176.064473553234</v>
@@ -2785,10 +3728,16 @@
       <c r="E78" t="s">
         <v>8</v>
       </c>
+      <c r="F78" t="s">
+        <v>162</v>
+      </c>
+      <c r="G78" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="B79" t="n">
         <v>20.4208727546221</v>
@@ -2802,10 +3751,16 @@
       <c r="E79" t="s">
         <v>8</v>
       </c>
+      <c r="F79" t="s">
+        <v>164</v>
+      </c>
+      <c r="G79" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="B80" t="n">
         <v>906.151476783611</v>
@@ -2819,10 +3774,16 @@
       <c r="E80" t="s">
         <v>8</v>
       </c>
+      <c r="F80" t="s">
+        <v>166</v>
+      </c>
+      <c r="G80" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="B81" t="n">
         <v>461.114177735069</v>
@@ -2836,10 +3797,16 @@
       <c r="E81" t="s">
         <v>8</v>
       </c>
+      <c r="F81" t="s">
+        <v>168</v>
+      </c>
+      <c r="G81" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="B82" t="n">
         <v>60.6552531224399</v>
@@ -2853,10 +3820,16 @@
       <c r="E82" t="s">
         <v>8</v>
       </c>
+      <c r="F82" t="s">
+        <v>169</v>
+      </c>
+      <c r="G82" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="B83" t="n">
         <v>19.429065603796</v>
@@ -2870,10 +3843,16 @@
       <c r="E83" t="s">
         <v>8</v>
       </c>
+      <c r="F83" t="s">
+        <v>171</v>
+      </c>
+      <c r="G83" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="B84" t="n">
         <v>90560.3949766505</v>
@@ -2887,10 +3866,14 @@
       <c r="E84" t="s">
         <v>8</v>
       </c>
+      <c r="F84" t="s">
+        <v>173</v>
+      </c>
+      <c r="G84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="B85" t="n">
         <v>23605.5647658951</v>
@@ -2904,10 +3887,14 @@
       <c r="E85" t="s">
         <v>8</v>
       </c>
+      <c r="F85" t="s">
+        <v>175</v>
+      </c>
+      <c r="G85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="B86" t="n">
         <v>2680.49379370217</v>
@@ -2921,10 +3908,14 @@
       <c r="E86" t="s">
         <v>8</v>
       </c>
+      <c r="F86" t="s">
+        <v>177</v>
+      </c>
+      <c r="G86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="B87" t="n">
         <v>3746.0826613462</v>
@@ -2938,10 +3929,16 @@
       <c r="E87" t="s">
         <v>8</v>
       </c>
+      <c r="F87" t="s">
+        <v>179</v>
+      </c>
+      <c r="G87" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="B88" t="n">
         <v>119.095590178084</v>
@@ -2955,10 +3952,16 @@
       <c r="E88" t="s">
         <v>8</v>
       </c>
+      <c r="F88" t="s">
+        <v>180</v>
+      </c>
+      <c r="G88" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="B89" t="n">
         <v>111.341031024232</v>
@@ -2972,10 +3975,16 @@
       <c r="E89" t="s">
         <v>8</v>
       </c>
+      <c r="F89" t="s">
+        <v>182</v>
+      </c>
+      <c r="G89" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="B90" t="n">
         <v>152.042570626078</v>
@@ -2989,10 +3998,14 @@
       <c r="E90" t="s">
         <v>8</v>
       </c>
+      <c r="F90" t="s">
+        <v>184</v>
+      </c>
+      <c r="G90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="B91" t="n">
         <v>49.0213273185027</v>
@@ -3006,10 +4019,16 @@
       <c r="E91" t="s">
         <v>8</v>
       </c>
+      <c r="F91" t="s">
+        <v>185</v>
+      </c>
+      <c r="G91" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="B92" t="n">
         <v>723.213398030067</v>
@@ -3023,10 +4042,14 @@
       <c r="E92" t="s">
         <v>8</v>
       </c>
+      <c r="F92" t="s">
+        <v>186</v>
+      </c>
+      <c r="G92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>112</v>
+        <v>187</v>
       </c>
       <c r="B93" t="n">
         <v>721.812972100546</v>
@@ -3040,10 +4063,16 @@
       <c r="E93" t="s">
         <v>8</v>
       </c>
+      <c r="F93" t="s">
+        <v>188</v>
+      </c>
+      <c r="G93" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="B94" t="n">
         <v>705.663345037973</v>
@@ -3057,10 +4086,16 @@
       <c r="E94" t="s">
         <v>8</v>
       </c>
+      <c r="F94" t="s">
+        <v>190</v>
+      </c>
+      <c r="G94" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="B95" t="n">
         <v>2307.01271258607</v>
@@ -3074,10 +4109,14 @@
       <c r="E95" t="s">
         <v>8</v>
       </c>
+      <c r="F95" t="s">
+        <v>192</v>
+      </c>
+      <c r="G95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="B96" t="n">
         <v>8.62758531019655</v>
@@ -3091,10 +4130,16 @@
       <c r="E96" t="s">
         <v>8</v>
       </c>
+      <c r="F96" t="s">
+        <v>194</v>
+      </c>
+      <c r="G96" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="B97" t="n">
         <v>159.652085337171</v>
@@ -3108,10 +4153,16 @@
       <c r="E97" t="s">
         <v>8</v>
       </c>
+      <c r="F97" t="s">
+        <v>196</v>
+      </c>
+      <c r="G97" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="B98" t="n">
         <v>406.955275169537</v>
@@ -3125,10 +4176,16 @@
       <c r="E98" t="s">
         <v>8</v>
       </c>
+      <c r="F98" t="s">
+        <v>198</v>
+      </c>
+      <c r="G98" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="B99" t="n">
         <v>467.039830301602</v>
@@ -3142,10 +4199,16 @@
       <c r="E99" t="s">
         <v>8</v>
       </c>
+      <c r="F99" t="s">
+        <v>199</v>
+      </c>
+      <c r="G99" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="B100" t="n">
         <v>0.944197853435017</v>
@@ -3159,10 +4222,16 @@
       <c r="E100" t="s">
         <v>8</v>
       </c>
+      <c r="F100" t="s">
+        <v>201</v>
+      </c>
+      <c r="G100" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
       <c r="B101" t="n">
         <v>388.849372196311</v>
@@ -3176,10 +4245,16 @@
       <c r="E101" t="s">
         <v>8</v>
       </c>
+      <c r="F101" t="s">
+        <v>203</v>
+      </c>
+      <c r="G101" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="B102" t="n">
         <v>33.521098182586</v>
@@ -3193,10 +4268,16 @@
       <c r="E102" t="s">
         <v>8</v>
       </c>
+      <c r="F102" t="s">
+        <v>205</v>
+      </c>
+      <c r="G102" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="B103" t="n">
         <v>280.332465292456</v>
@@ -3210,10 +4291,16 @@
       <c r="E103" t="s">
         <v>8</v>
       </c>
+      <c r="F103" t="s">
+        <v>207</v>
+      </c>
+      <c r="G103" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="B104" t="n">
         <v>525.505275350954</v>
@@ -3227,10 +4314,16 @@
       <c r="E104" t="s">
         <v>8</v>
       </c>
+      <c r="F104" t="s">
+        <v>209</v>
+      </c>
+      <c r="G104" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="B105" t="n">
         <v>131.866822298991</v>
@@ -3244,10 +4337,16 @@
       <c r="E105" t="s">
         <v>8</v>
       </c>
+      <c r="F105" t="s">
+        <v>211</v>
+      </c>
+      <c r="G105" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="B106" t="n">
         <v>3.42204792321993</v>
@@ -3261,10 +4360,16 @@
       <c r="E106" t="s">
         <v>8</v>
       </c>
+      <c r="F106" t="s">
+        <v>213</v>
+      </c>
+      <c r="G106" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="B107" t="n">
         <v>2391.89931489662</v>
@@ -3278,10 +4383,16 @@
       <c r="E107" t="s">
         <v>8</v>
       </c>
+      <c r="F107" t="s">
+        <v>215</v>
+      </c>
+      <c r="G107" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="B108" t="n">
         <v>545.923065507908</v>
@@ -3295,10 +4406,16 @@
       <c r="E108" t="s">
         <v>8</v>
       </c>
+      <c r="F108" t="s">
+        <v>217</v>
+      </c>
+      <c r="G108" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="B109" t="n">
         <v>1878.68751779242</v>
@@ -3312,10 +4429,16 @@
       <c r="E109" t="s">
         <v>8</v>
       </c>
+      <c r="F109" t="s">
+        <v>218</v>
+      </c>
+      <c r="G109" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="B110" t="n">
         <v>19.4583049282747</v>
@@ -3329,10 +4452,16 @@
       <c r="E110" t="s">
         <v>8</v>
       </c>
+      <c r="F110" t="s">
+        <v>220</v>
+      </c>
+      <c r="G110" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="B111" t="n">
         <v>1865.84865496392</v>
@@ -3346,10 +4475,16 @@
       <c r="E111" t="s">
         <v>8</v>
       </c>
+      <c r="F111" t="s">
+        <v>222</v>
+      </c>
+      <c r="G111" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="B112" t="n">
         <v>5.8406190924579</v>
@@ -3363,10 +4498,16 @@
       <c r="E112" t="s">
         <v>8</v>
       </c>
+      <c r="F112" t="s">
+        <v>224</v>
+      </c>
+      <c r="G112" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="B113" t="n">
         <v>2.3739219372689</v>
@@ -3380,10 +4521,16 @@
       <c r="E113" t="s">
         <v>8</v>
       </c>
+      <c r="F113" t="s">
+        <v>226</v>
+      </c>
+      <c r="G113" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>133</v>
+        <v>227</v>
       </c>
       <c r="B114" t="n">
         <v>422.544804728711</v>
@@ -3397,10 +4544,16 @@
       <c r="E114" t="s">
         <v>8</v>
       </c>
+      <c r="F114" t="s">
+        <v>228</v>
+      </c>
+      <c r="G114" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c r="B115" t="n">
         <v>20.5531549965128</v>
@@ -3414,10 +4567,16 @@
       <c r="E115" t="s">
         <v>8</v>
       </c>
+      <c r="F115" t="s">
+        <v>230</v>
+      </c>
+      <c r="G115" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="B116" t="n">
         <v>12482.9627295695</v>
@@ -3431,10 +4590,14 @@
       <c r="E116" t="s">
         <v>8</v>
       </c>
+      <c r="F116" t="s">
+        <v>232</v>
+      </c>
+      <c r="G116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="B117" t="n">
         <v>4.74633772170358</v>
@@ -3448,10 +4611,16 @@
       <c r="E117" t="s">
         <v>8</v>
       </c>
+      <c r="F117" t="s">
+        <v>234</v>
+      </c>
+      <c r="G117" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="B118" t="n">
         <v>0.187851029868144</v>
@@ -3465,10 +4634,16 @@
       <c r="E118" t="s">
         <v>8</v>
       </c>
+      <c r="F118" t="s">
+        <v>236</v>
+      </c>
+      <c r="G118" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>138</v>
+        <v>237</v>
       </c>
       <c r="B119" t="n">
         <v>457.940034430028</v>
@@ -3482,10 +4657,16 @@
       <c r="E119" t="s">
         <v>8</v>
       </c>
+      <c r="F119" t="s">
+        <v>237</v>
+      </c>
+      <c r="G119" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>139</v>
+        <v>238</v>
       </c>
       <c r="B120" t="n">
         <v>34.017138850708</v>
@@ -3499,10 +4680,16 @@
       <c r="E120" t="s">
         <v>8</v>
       </c>
+      <c r="F120" t="s">
+        <v>238</v>
+      </c>
+      <c r="G120" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>140</v>
+        <v>239</v>
       </c>
       <c r="B121" t="n">
         <v>1213.61877374895</v>
@@ -3516,10 +4703,16 @@
       <c r="E121" t="s">
         <v>8</v>
       </c>
+      <c r="F121" t="s">
+        <v>240</v>
+      </c>
+      <c r="G121" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="B122" t="n">
         <v>613.072082069952</v>
@@ -3533,10 +4726,16 @@
       <c r="E122" t="s">
         <v>8</v>
       </c>
+      <c r="F122" t="s">
+        <v>242</v>
+      </c>
+      <c r="G122" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c r="B123" t="n">
         <v>3029.59750397158</v>
@@ -3550,10 +4749,16 @@
       <c r="E123" t="s">
         <v>8</v>
       </c>
+      <c r="F123" t="s">
+        <v>244</v>
+      </c>
+      <c r="G123" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>143</v>
+        <v>245</v>
       </c>
       <c r="B124" t="n">
         <v>33.3997375333192</v>
@@ -3567,10 +4772,16 @@
       <c r="E124" t="s">
         <v>8</v>
       </c>
+      <c r="F124" t="s">
+        <v>246</v>
+      </c>
+      <c r="G124" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>144</v>
+        <v>247</v>
       </c>
       <c r="B125" t="n">
         <v>0.0473318243232993</v>
@@ -3584,10 +4795,16 @@
       <c r="E125" t="s">
         <v>8</v>
       </c>
+      <c r="F125" t="s">
+        <v>248</v>
+      </c>
+      <c r="G125" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="B126" t="n">
         <v>1990.39174157503</v>
@@ -3601,10 +4818,16 @@
       <c r="E126" t="s">
         <v>8</v>
       </c>
+      <c r="F126" t="s">
+        <v>250</v>
+      </c>
+      <c r="G126" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="B127" t="n">
         <v>452.68417420045</v>
@@ -3618,10 +4841,16 @@
       <c r="E127" t="s">
         <v>8</v>
       </c>
+      <c r="F127" t="s">
+        <v>252</v>
+      </c>
+      <c r="G127" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>147</v>
+        <v>253</v>
       </c>
       <c r="B128" t="n">
         <v>12.9611764337837</v>
@@ -3635,10 +4864,14 @@
       <c r="E128" t="s">
         <v>8</v>
       </c>
+      <c r="F128" t="s">
+        <v>253</v>
+      </c>
+      <c r="G128"/>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>148</v>
+        <v>254</v>
       </c>
       <c r="B129" t="n">
         <v>2.60515488118327</v>
@@ -3652,10 +4885,16 @@
       <c r="E129" t="s">
         <v>8</v>
       </c>
+      <c r="F129" t="s">
+        <v>255</v>
+      </c>
+      <c r="G129" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="B130" t="n">
         <v>2215.78282521466</v>
@@ -3669,10 +4908,16 @@
       <c r="E130" t="s">
         <v>8</v>
       </c>
+      <c r="F130" t="s">
+        <v>257</v>
+      </c>
+      <c r="G130" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="B131" t="n">
         <v>25734.4772377034</v>
@@ -3686,10 +4931,14 @@
       <c r="E131" t="s">
         <v>8</v>
       </c>
+      <c r="F131" t="s">
+        <v>259</v>
+      </c>
+      <c r="G131"/>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="B132" t="n">
         <v>0.0132260615244476</v>
@@ -3703,10 +4952,16 @@
       <c r="E132" t="s">
         <v>8</v>
       </c>
+      <c r="F132" t="s">
+        <v>261</v>
+      </c>
+      <c r="G132" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>152</v>
+        <v>262</v>
       </c>
       <c r="B133" t="n">
         <v>122.984000591554</v>
@@ -3720,10 +4975,16 @@
       <c r="E133" t="s">
         <v>8</v>
       </c>
+      <c r="F133" t="s">
+        <v>262</v>
+      </c>
+      <c r="G133" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>153</v>
+        <v>263</v>
       </c>
       <c r="B134" t="n">
         <v>0.418440939487616</v>
@@ -3737,10 +4998,16 @@
       <c r="E134" t="s">
         <v>8</v>
       </c>
+      <c r="F134" t="s">
+        <v>263</v>
+      </c>
+      <c r="G134" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>154</v>
+        <v>264</v>
       </c>
       <c r="B135" t="n">
         <v>73.7738430601137</v>
@@ -3754,10 +5021,14 @@
       <c r="E135" t="s">
         <v>8</v>
       </c>
+      <c r="F135" t="s">
+        <v>265</v>
+      </c>
+      <c r="G135"/>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>155</v>
+        <v>266</v>
       </c>
       <c r="B136" t="n">
         <v>25.3781568114612</v>
@@ -3771,10 +5042,16 @@
       <c r="E136" t="s">
         <v>8</v>
       </c>
+      <c r="F136" t="s">
+        <v>267</v>
+      </c>
+      <c r="G136" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>156</v>
+        <v>268</v>
       </c>
       <c r="B137" t="n">
         <v>12834.1294714912</v>
@@ -3788,10 +5065,14 @@
       <c r="E137" t="s">
         <v>8</v>
       </c>
+      <c r="F137" t="s">
+        <v>269</v>
+      </c>
+      <c r="G137"/>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>157</v>
+        <v>270</v>
       </c>
       <c r="B138" t="n">
         <v>0.406034859181159</v>
@@ -3805,10 +5086,16 @@
       <c r="E138" t="s">
         <v>8</v>
       </c>
+      <c r="F138" t="s">
+        <v>271</v>
+      </c>
+      <c r="G138" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>158</v>
+        <v>272</v>
       </c>
       <c r="B139" t="n">
         <v>43.1922424497227</v>
@@ -3822,10 +5109,16 @@
       <c r="E139" t="s">
         <v>8</v>
       </c>
+      <c r="F139" t="s">
+        <v>272</v>
+      </c>
+      <c r="G139" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>159</v>
+        <v>273</v>
       </c>
       <c r="B140" t="n">
         <v>187.803010971008</v>
@@ -3839,10 +5132,16 @@
       <c r="E140" t="s">
         <v>8</v>
       </c>
+      <c r="F140" t="s">
+        <v>274</v>
+      </c>
+      <c r="G140" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>160</v>
+        <v>275</v>
       </c>
       <c r="B141" t="n">
         <v>825.235450886616</v>
@@ -3856,10 +5155,16 @@
       <c r="E141" t="s">
         <v>8</v>
       </c>
+      <c r="F141" t="s">
+        <v>276</v>
+      </c>
+      <c r="G141" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>161</v>
+        <v>277</v>
       </c>
       <c r="B142" t="n">
         <v>87.1643636919667</v>
@@ -3873,10 +5178,16 @@
       <c r="E142" t="s">
         <v>8</v>
       </c>
+      <c r="F142" t="s">
+        <v>278</v>
+      </c>
+      <c r="G142" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>162</v>
+        <v>279</v>
       </c>
       <c r="B143" t="n">
         <v>2620.26738875521</v>
@@ -3890,10 +5201,16 @@
       <c r="E143" t="s">
         <v>8</v>
       </c>
+      <c r="F143" t="s">
+        <v>280</v>
+      </c>
+      <c r="G143" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>163</v>
+        <v>281</v>
       </c>
       <c r="B144" t="n">
         <v>4209.96430077553</v>
@@ -3907,10 +5224,14 @@
       <c r="E144" t="s">
         <v>8</v>
       </c>
+      <c r="F144" t="s">
+        <v>282</v>
+      </c>
+      <c r="G144"/>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>164</v>
+        <v>283</v>
       </c>
       <c r="B145" t="n">
         <v>616.128614636334</v>
@@ -3924,10 +5245,14 @@
       <c r="E145" t="s">
         <v>8</v>
       </c>
+      <c r="F145" t="s">
+        <v>284</v>
+      </c>
+      <c r="G145"/>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>165</v>
+        <v>285</v>
       </c>
       <c r="B146" t="n">
         <v>106.279705798958</v>
@@ -3941,10 +5266,16 @@
       <c r="E146" t="s">
         <v>8</v>
       </c>
+      <c r="F146" t="s">
+        <v>286</v>
+      </c>
+      <c r="G146" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>166</v>
+        <v>287</v>
       </c>
       <c r="B147" t="n">
         <v>108.397894730783</v>
@@ -3958,10 +5289,16 @@
       <c r="E147" t="s">
         <v>8</v>
       </c>
+      <c r="F147" t="s">
+        <v>287</v>
+      </c>
+      <c r="G147" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>167</v>
+        <v>288</v>
       </c>
       <c r="B148" t="n">
         <v>33.2143724965598</v>
@@ -3975,10 +5312,16 @@
       <c r="E148" t="s">
         <v>8</v>
       </c>
+      <c r="F148" t="s">
+        <v>289</v>
+      </c>
+      <c r="G148" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>168</v>
+        <v>290</v>
       </c>
       <c r="B149" t="n">
         <v>795.047598817187</v>
@@ -3992,10 +5335,16 @@
       <c r="E149" t="s">
         <v>8</v>
       </c>
+      <c r="F149" t="s">
+        <v>290</v>
+      </c>
+      <c r="G149" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>169</v>
+        <v>291</v>
       </c>
       <c r="B150" t="n">
         <v>183.587735430709</v>
@@ -4009,10 +5358,16 @@
       <c r="E150" t="s">
         <v>8</v>
       </c>
+      <c r="F150" t="s">
+        <v>291</v>
+      </c>
+      <c r="G150" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>170</v>
+        <v>292</v>
       </c>
       <c r="B151" t="n">
         <v>1301.77325347737</v>
@@ -4026,10 +5381,16 @@
       <c r="E151" t="s">
         <v>8</v>
       </c>
+      <c r="F151" t="s">
+        <v>292</v>
+      </c>
+      <c r="G151" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>171</v>
+        <v>293</v>
       </c>
       <c r="B152" t="n">
         <v>3186.65685293236</v>
@@ -4043,10 +5404,14 @@
       <c r="E152" t="s">
         <v>8</v>
       </c>
+      <c r="F152" t="s">
+        <v>293</v>
+      </c>
+      <c r="G152"/>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>172</v>
+        <v>294</v>
       </c>
       <c r="B153" t="n">
         <v>260.016494941812</v>
@@ -4060,10 +5425,16 @@
       <c r="E153" t="s">
         <v>8</v>
       </c>
+      <c r="F153" t="s">
+        <v>295</v>
+      </c>
+      <c r="G153" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>173</v>
+        <v>296</v>
       </c>
       <c r="B154" t="n">
         <v>0.958733169318725</v>
@@ -4077,10 +5448,16 @@
       <c r="E154" t="s">
         <v>8</v>
       </c>
+      <c r="F154" t="s">
+        <v>296</v>
+      </c>
+      <c r="G154" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>174</v>
+        <v>297</v>
       </c>
       <c r="B155" t="n">
         <v>5.87081914262883</v>
@@ -4094,10 +5471,16 @@
       <c r="E155" t="s">
         <v>8</v>
       </c>
+      <c r="F155" t="s">
+        <v>297</v>
+      </c>
+      <c r="G155" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
       <c r="B156" t="n">
         <v>1.33609818197539</v>
@@ -4111,10 +5494,16 @@
       <c r="E156" t="s">
         <v>8</v>
       </c>
+      <c r="F156" t="s">
+        <v>298</v>
+      </c>
+      <c r="G156" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>176</v>
+        <v>299</v>
       </c>
       <c r="B157" t="n">
         <v>12.4620641970315</v>
@@ -4128,10 +5517,16 @@
       <c r="E157" t="s">
         <v>8</v>
       </c>
+      <c r="F157" t="s">
+        <v>300</v>
+      </c>
+      <c r="G157" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>177</v>
+        <v>301</v>
       </c>
       <c r="B158" t="n">
         <v>1.21354577870548</v>
@@ -4145,10 +5540,16 @@
       <c r="E158" t="s">
         <v>8</v>
       </c>
+      <c r="F158" t="s">
+        <v>302</v>
+      </c>
+      <c r="G158" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>178</v>
+        <v>303</v>
       </c>
       <c r="B159" t="n">
         <v>7.72927671162752</v>
@@ -4162,10 +5563,16 @@
       <c r="E159" t="s">
         <v>8</v>
       </c>
+      <c r="F159" t="s">
+        <v>304</v>
+      </c>
+      <c r="G159" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>179</v>
+        <v>305</v>
       </c>
       <c r="B160" t="n">
         <v>1403.83797572045</v>
@@ -4179,10 +5586,16 @@
       <c r="E160" t="s">
         <v>8</v>
       </c>
+      <c r="F160" t="s">
+        <v>306</v>
+      </c>
+      <c r="G160" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>180</v>
+        <v>307</v>
       </c>
       <c r="B161" t="n">
         <v>590.322526606695</v>
@@ -4196,10 +5609,16 @@
       <c r="E161" t="s">
         <v>8</v>
       </c>
+      <c r="F161" t="s">
+        <v>308</v>
+      </c>
+      <c r="G161" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>181</v>
+        <v>309</v>
       </c>
       <c r="B162" t="n">
         <v>507.151555312886</v>
@@ -4213,10 +5632,16 @@
       <c r="E162" t="s">
         <v>8</v>
       </c>
+      <c r="F162" t="s">
+        <v>310</v>
+      </c>
+      <c r="G162" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>182</v>
+        <v>311</v>
       </c>
       <c r="B163" t="n">
         <v>1.27160924019584</v>
@@ -4230,10 +5655,16 @@
       <c r="E163" t="s">
         <v>8</v>
       </c>
+      <c r="F163" t="s">
+        <v>312</v>
+      </c>
+      <c r="G163" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>183</v>
+        <v>313</v>
       </c>
       <c r="B164" t="n">
         <v>493.362253455538</v>
@@ -4247,10 +5678,16 @@
       <c r="E164" t="s">
         <v>8</v>
       </c>
+      <c r="F164" t="s">
+        <v>314</v>
+      </c>
+      <c r="G164" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>184</v>
+        <v>315</v>
       </c>
       <c r="B165" t="n">
         <v>113.81232485997</v>
@@ -4264,10 +5701,16 @@
       <c r="E165" t="s">
         <v>8</v>
       </c>
+      <c r="F165" t="s">
+        <v>316</v>
+      </c>
+      <c r="G165" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>185</v>
+        <v>317</v>
       </c>
       <c r="B166" t="n">
         <v>80.834950473193</v>
@@ -4281,10 +5724,16 @@
       <c r="E166" t="s">
         <v>8</v>
       </c>
+      <c r="F166" t="s">
+        <v>318</v>
+      </c>
+      <c r="G166" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>186</v>
+        <v>319</v>
       </c>
       <c r="B167" t="n">
         <v>71.0459743530158</v>
@@ -4298,10 +5747,16 @@
       <c r="E167" t="s">
         <v>8</v>
       </c>
+      <c r="F167" t="s">
+        <v>320</v>
+      </c>
+      <c r="G167" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>187</v>
+        <v>321</v>
       </c>
       <c r="B168" t="n">
         <v>16.6165486368805</v>
@@ -4315,10 +5770,16 @@
       <c r="E168" t="s">
         <v>8</v>
       </c>
+      <c r="F168" t="s">
+        <v>321</v>
+      </c>
+      <c r="G168" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>188</v>
+        <v>322</v>
       </c>
       <c r="B169" t="n">
         <v>3419.08568779274</v>
@@ -4332,10 +5793,16 @@
       <c r="E169" t="s">
         <v>8</v>
       </c>
+      <c r="F169" t="s">
+        <v>323</v>
+      </c>
+      <c r="G169" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>189</v>
+        <v>324</v>
       </c>
       <c r="B170" t="n">
         <v>2357.10647904144</v>
@@ -4349,10 +5816,14 @@
       <c r="E170" t="s">
         <v>8</v>
       </c>
+      <c r="F170" t="s">
+        <v>325</v>
+      </c>
+      <c r="G170"/>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>190</v>
+        <v>326</v>
       </c>
       <c r="B171" t="n">
         <v>1056.41721493853</v>
@@ -4366,10 +5837,16 @@
       <c r="E171" t="s">
         <v>8</v>
       </c>
+      <c r="F171" t="s">
+        <v>327</v>
+      </c>
+      <c r="G171" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>191</v>
+        <v>328</v>
       </c>
       <c r="B172" t="n">
         <v>646.27384309202</v>
@@ -4383,10 +5860,16 @@
       <c r="E172" t="s">
         <v>8</v>
       </c>
+      <c r="F172" t="s">
+        <v>329</v>
+      </c>
+      <c r="G172" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>192</v>
+        <v>330</v>
       </c>
       <c r="B173" t="n">
         <v>104.49266411546</v>
@@ -4400,10 +5883,16 @@
       <c r="E173" t="s">
         <v>8</v>
       </c>
+      <c r="F173" t="s">
+        <v>331</v>
+      </c>
+      <c r="G173" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>193</v>
+        <v>332</v>
       </c>
       <c r="B174" t="n">
         <v>3202.56059816021</v>
@@ -4417,10 +5906,16 @@
       <c r="E174" t="s">
         <v>8</v>
       </c>
+      <c r="F174" t="s">
+        <v>333</v>
+      </c>
+      <c r="G174" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>194</v>
+        <v>334</v>
       </c>
       <c r="B175" t="n">
         <v>33.7682746727407</v>
@@ -4434,10 +5929,16 @@
       <c r="E175" t="s">
         <v>8</v>
       </c>
+      <c r="F175" t="s">
+        <v>335</v>
+      </c>
+      <c r="G175" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>195</v>
+        <v>336</v>
       </c>
       <c r="B176" t="n">
         <v>109.177894451181</v>
@@ -4451,10 +5952,14 @@
       <c r="E176" t="s">
         <v>8</v>
       </c>
+      <c r="F176" t="s">
+        <v>337</v>
+      </c>
+      <c r="G176"/>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>196</v>
+        <v>338</v>
       </c>
       <c r="B177" t="n">
         <v>142.033032295562</v>
@@ -4468,10 +5973,16 @@
       <c r="E177" t="s">
         <v>8</v>
       </c>
+      <c r="F177" t="s">
+        <v>339</v>
+      </c>
+      <c r="G177" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>197</v>
+        <v>340</v>
       </c>
       <c r="B178" t="n">
         <v>1532.48434323104</v>
@@ -4485,10 +5996,16 @@
       <c r="E178" t="s">
         <v>8</v>
       </c>
+      <c r="F178" t="s">
+        <v>340</v>
+      </c>
+      <c r="G178" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>198</v>
+        <v>341</v>
       </c>
       <c r="B179" t="n">
         <v>310.27105836466</v>
@@ -4502,10 +6019,16 @@
       <c r="E179" t="s">
         <v>8</v>
       </c>
+      <c r="F179" t="s">
+        <v>341</v>
+      </c>
+      <c r="G179" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>199</v>
+        <v>342</v>
       </c>
       <c r="B180" t="n">
         <v>564.264329496374</v>
@@ -4519,10 +6042,16 @@
       <c r="E180" t="s">
         <v>8</v>
       </c>
+      <c r="F180" t="s">
+        <v>343</v>
+      </c>
+      <c r="G180" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>200</v>
+        <v>344</v>
       </c>
       <c r="B181" t="n">
         <v>1181.33748398867</v>
@@ -4536,10 +6065,16 @@
       <c r="E181" t="s">
         <v>8</v>
       </c>
+      <c r="F181" t="s">
+        <v>345</v>
+      </c>
+      <c r="G181" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>201</v>
+        <v>346</v>
       </c>
       <c r="B182" t="n">
         <v>67.2754890168431</v>
@@ -4553,10 +6088,16 @@
       <c r="E182" t="s">
         <v>8</v>
       </c>
+      <c r="F182" t="s">
+        <v>347</v>
+      </c>
+      <c r="G182" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>202</v>
+        <v>348</v>
       </c>
       <c r="B183" t="n">
         <v>820.589201268834</v>
@@ -4570,10 +6111,16 @@
       <c r="E183" t="s">
         <v>8</v>
       </c>
+      <c r="F183" t="s">
+        <v>349</v>
+      </c>
+      <c r="G183" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>203</v>
+        <v>350</v>
       </c>
       <c r="B184" t="n">
         <v>0.015292811449981</v>
@@ -4587,10 +6134,16 @@
       <c r="E184" t="s">
         <v>8</v>
       </c>
+      <c r="F184" t="s">
+        <v>350</v>
+      </c>
+      <c r="G184" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>204</v>
+        <v>351</v>
       </c>
       <c r="B185" t="n">
         <v>0.131714361338315</v>
@@ -4604,10 +6157,16 @@
       <c r="E185" t="s">
         <v>8</v>
       </c>
+      <c r="F185" t="s">
+        <v>352</v>
+      </c>
+      <c r="G185" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>205</v>
+        <v>353</v>
       </c>
       <c r="B186" t="n">
         <v>83.5658389037799</v>
@@ -4621,10 +6180,16 @@
       <c r="E186" t="s">
         <v>8</v>
       </c>
+      <c r="F186" t="s">
+        <v>354</v>
+      </c>
+      <c r="G186" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>206</v>
+        <v>355</v>
       </c>
       <c r="B187" t="n">
         <v>312.655274021083</v>
@@ -4638,10 +6203,16 @@
       <c r="E187" t="s">
         <v>8</v>
       </c>
+      <c r="F187" t="s">
+        <v>356</v>
+      </c>
+      <c r="G187" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>207</v>
+        <v>357</v>
       </c>
       <c r="B188" t="n">
         <v>31.4214989318642</v>
@@ -4655,10 +6226,16 @@
       <c r="E188" t="s">
         <v>8</v>
       </c>
+      <c r="F188" t="s">
+        <v>357</v>
+      </c>
+      <c r="G188" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>208</v>
+        <v>358</v>
       </c>
       <c r="B189" t="n">
         <v>0.247907845461992</v>
@@ -4672,10 +6249,16 @@
       <c r="E189" t="s">
         <v>8</v>
       </c>
+      <c r="F189" t="s">
+        <v>358</v>
+      </c>
+      <c r="G189" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>209</v>
+        <v>359</v>
       </c>
       <c r="B190" t="n">
         <v>2967.81449752513</v>
@@ -4689,10 +6272,16 @@
       <c r="E190" t="s">
         <v>8</v>
       </c>
+      <c r="F190" t="s">
+        <v>360</v>
+      </c>
+      <c r="G190" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>210</v>
+        <v>361</v>
       </c>
       <c r="B191" t="n">
         <v>2842.22834091378</v>
@@ -4706,10 +6295,16 @@
       <c r="E191" t="s">
         <v>8</v>
       </c>
+      <c r="F191" t="s">
+        <v>362</v>
+      </c>
+      <c r="G191" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>211</v>
+        <v>363</v>
       </c>
       <c r="B192" t="n">
         <v>4997.02950042279</v>
@@ -4723,10 +6318,14 @@
       <c r="E192" t="s">
         <v>8</v>
       </c>
+      <c r="F192" t="s">
+        <v>363</v>
+      </c>
+      <c r="G192"/>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>212</v>
+        <v>364</v>
       </c>
       <c r="B193" t="n">
         <v>438.456519770308</v>
@@ -4740,10 +6339,16 @@
       <c r="E193" t="s">
         <v>8</v>
       </c>
+      <c r="F193" t="s">
+        <v>364</v>
+      </c>
+      <c r="G193" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>213</v>
+        <v>365</v>
       </c>
       <c r="B194" t="n">
         <v>1433.61436431292</v>
@@ -4757,10 +6362,14 @@
       <c r="E194" t="s">
         <v>8</v>
       </c>
+      <c r="F194" t="s">
+        <v>366</v>
+      </c>
+      <c r="G194"/>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>214</v>
+        <v>367</v>
       </c>
       <c r="B195" t="n">
         <v>2398.56879090336</v>
@@ -4774,10 +6383,16 @@
       <c r="E195" t="s">
         <v>8</v>
       </c>
+      <c r="F195" t="s">
+        <v>367</v>
+      </c>
+      <c r="G195" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>215</v>
+        <v>368</v>
       </c>
       <c r="B196" t="n">
         <v>6.45230036524972</v>
@@ -4791,10 +6406,16 @@
       <c r="E196" t="s">
         <v>8</v>
       </c>
+      <c r="F196" t="s">
+        <v>368</v>
+      </c>
+      <c r="G196" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>216</v>
+        <v>369</v>
       </c>
       <c r="B197" t="n">
         <v>13889.5064131194</v>
@@ -4808,10 +6429,14 @@
       <c r="E197" t="s">
         <v>8</v>
       </c>
+      <c r="F197" t="s">
+        <v>369</v>
+      </c>
+      <c r="G197"/>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>217</v>
+        <v>370</v>
       </c>
       <c r="B198" t="n">
         <v>22.4216550983544</v>
@@ -4825,10 +6450,16 @@
       <c r="E198" t="s">
         <v>8</v>
       </c>
+      <c r="F198" t="s">
+        <v>371</v>
+      </c>
+      <c r="G198" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>218</v>
+        <v>372</v>
       </c>
       <c r="B199" t="n">
         <v>1569.72063705559</v>
@@ -4842,10 +6473,16 @@
       <c r="E199" t="s">
         <v>8</v>
       </c>
+      <c r="F199" t="s">
+        <v>373</v>
+      </c>
+      <c r="G199" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>219</v>
+        <v>374</v>
       </c>
       <c r="B200" t="n">
         <v>8.6216903717605</v>
@@ -4859,10 +6496,16 @@
       <c r="E200" t="s">
         <v>8</v>
       </c>
+      <c r="F200" t="s">
+        <v>375</v>
+      </c>
+      <c r="G200" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>220</v>
+        <v>376</v>
       </c>
       <c r="B201" t="n">
         <v>1220.36982364696</v>
@@ -4876,10 +6519,16 @@
       <c r="E201" t="s">
         <v>8</v>
       </c>
+      <c r="F201" t="s">
+        <v>377</v>
+      </c>
+      <c r="G201" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>221</v>
+        <v>378</v>
       </c>
       <c r="B202" t="n">
         <v>5859.89209599496</v>
@@ -4893,10 +6542,16 @@
       <c r="E202" t="s">
         <v>8</v>
       </c>
+      <c r="F202" t="s">
+        <v>379</v>
+      </c>
+      <c r="G202" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>222</v>
+        <v>380</v>
       </c>
       <c r="B203" t="n">
         <v>2946.4757776904</v>
@@ -4910,10 +6565,16 @@
       <c r="E203" t="s">
         <v>8</v>
       </c>
+      <c r="F203" t="s">
+        <v>381</v>
+      </c>
+      <c r="G203" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>223</v>
+        <v>382</v>
       </c>
       <c r="B204" t="n">
         <v>1023.08696465694</v>
@@ -4927,10 +6588,16 @@
       <c r="E204" t="s">
         <v>8</v>
       </c>
+      <c r="F204" t="s">
+        <v>383</v>
+      </c>
+      <c r="G204" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>224</v>
+        <v>384</v>
       </c>
       <c r="B205" t="n">
         <v>186.982845280498</v>
@@ -4943,6 +6610,12 @@
       </c>
       <c r="E205" t="s">
         <v>8</v>
+      </c>
+      <c r="F205" t="s">
+        <v>385</v>
+      </c>
+      <c r="G205" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4978,10 +6651,16 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="n">
         <v>2510.57213256571</v>
@@ -4995,10 +6674,16 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B3" t="n">
         <v>0.415085189667336</v>
@@ -5012,10 +6697,16 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B4" t="n">
         <v>340.952410011085</v>
@@ -5029,10 +6720,16 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B5" t="n">
         <v>0.804670478558844</v>
@@ -5046,10 +6743,16 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B6" t="n">
         <v>0.0298384724651801</v>
@@ -5063,10 +6766,16 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B7" t="n">
         <v>4070.12098777486</v>
@@ -5080,10 +6789,16 @@
       <c r="E7" t="s">
         <v>8</v>
       </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B8" t="n">
         <v>0.0168399825287521</v>
@@ -5097,10 +6812,16 @@
       <c r="E8" t="s">
         <v>8</v>
       </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B9" t="n">
         <v>5.22487955235914</v>
@@ -5114,10 +6835,16 @@
       <c r="E9" t="s">
         <v>8</v>
       </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B10" t="n">
         <v>1.88782486464143</v>
@@ -5131,10 +6858,16 @@
       <c r="E10" t="s">
         <v>8</v>
       </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B11" t="n">
         <v>0.583970311333364</v>
@@ -5148,10 +6881,16 @@
       <c r="E11" t="s">
         <v>8</v>
       </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B12" t="n">
         <v>2.42058045661584</v>
@@ -5165,10 +6904,16 @@
       <c r="E12" t="s">
         <v>8</v>
       </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n">
         <v>316.859784174887</v>
@@ -5182,10 +6927,16 @@
       <c r="E13" t="s">
         <v>8</v>
       </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B14" t="n">
         <v>0.098382247773044</v>
@@ -5199,10 +6950,16 @@
       <c r="E14" t="s">
         <v>8</v>
       </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B15" t="n">
         <v>6.35462779839825</v>
@@ -5216,10 +6973,16 @@
       <c r="E15" t="s">
         <v>8</v>
       </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B16" t="n">
         <v>1681.71295554352</v>
@@ -5233,10 +6996,16 @@
       <c r="E16" t="s">
         <v>8</v>
       </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B17" t="n">
         <v>0.0553396448538142</v>
@@ -5250,10 +7019,16 @@
       <c r="E17" t="s">
         <v>8</v>
       </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B18" t="n">
         <v>0.745003919683123</v>
@@ -5267,10 +7042,16 @@
       <c r="E18" t="s">
         <v>8</v>
       </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B19" t="n">
         <v>0.966608275500134</v>
@@ -5284,10 +7065,16 @@
       <c r="E19" t="s">
         <v>8</v>
       </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B20" t="n">
         <v>0.115341253692936</v>
@@ -5301,10 +7088,16 @@
       <c r="E20" t="s">
         <v>8</v>
       </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B21" t="n">
         <v>403.312655913128</v>
@@ -5318,10 +7111,16 @@
       <c r="E21" t="s">
         <v>8</v>
       </c>
+      <c r="F21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B22" t="n">
         <v>0.026935267643657</v>
@@ -5335,10 +7134,16 @@
       <c r="E22" t="s">
         <v>8</v>
       </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B23" t="n">
         <v>1.31741020716311</v>
@@ -5352,10 +7157,16 @@
       <c r="E23" t="s">
         <v>8</v>
       </c>
+      <c r="F23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B24" t="n">
         <v>27.8659419881418</v>
@@ -5369,10 +7180,16 @@
       <c r="E24" t="s">
         <v>8</v>
       </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B25" t="n">
         <v>25.117309682198</v>
@@ -5386,10 +7203,16 @@
       <c r="E25" t="s">
         <v>8</v>
       </c>
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B26" t="n">
         <v>20.8782858053495</v>
@@ -5403,10 +7226,16 @@
       <c r="E26" t="s">
         <v>8</v>
       </c>
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B27" t="n">
         <v>75.5644692980786</v>
@@ -5420,10 +7249,14 @@
       <c r="E27" t="s">
         <v>8</v>
       </c>
+      <c r="F27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B28" t="n">
         <v>0.685998438847618</v>
@@ -5437,10 +7270,16 @@
       <c r="E28" t="s">
         <v>8</v>
       </c>
+      <c r="F28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B29" t="n">
         <v>1.75740160304112</v>
@@ -5454,10 +7293,16 @@
       <c r="E29" t="s">
         <v>8</v>
       </c>
+      <c r="F29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="B30" t="n">
         <v>350.13303466779</v>
@@ -5471,10 +7316,16 @@
       <c r="E30" t="s">
         <v>8</v>
       </c>
+      <c r="F30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B31" t="n">
         <v>156.189985864692</v>
@@ -5488,10 +7339,16 @@
       <c r="E31" t="s">
         <v>8</v>
       </c>
+      <c r="F31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B32" t="n">
         <v>0.856058470321512</v>
@@ -5505,10 +7362,16 @@
       <c r="E32" t="s">
         <v>8</v>
       </c>
+      <c r="F32" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B33" t="n">
         <v>355.437530134054</v>
@@ -5522,10 +7385,16 @@
       <c r="E33" t="s">
         <v>8</v>
       </c>
+      <c r="F33" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B34" t="n">
         <v>1288.06960952819</v>
@@ -5539,10 +7408,16 @@
       <c r="E34" t="s">
         <v>8</v>
       </c>
+      <c r="F34" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="B35" t="n">
         <v>13.5699366063695</v>
@@ -5556,10 +7431,16 @@
       <c r="E35" t="s">
         <v>8</v>
       </c>
+      <c r="F35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="B36" t="n">
         <v>1180.96611855486</v>
@@ -5573,10 +7454,16 @@
       <c r="E36" t="s">
         <v>8</v>
       </c>
+      <c r="F36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="B37" t="n">
         <v>1423.72837997207</v>
@@ -5590,10 +7477,16 @@
       <c r="E37" t="s">
         <v>8</v>
       </c>
+      <c r="F37" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="B38" t="n">
         <v>0.524911060931659</v>
@@ -5607,10 +7500,16 @@
       <c r="E38" t="s">
         <v>8</v>
       </c>
+      <c r="F38" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B39" t="n">
         <v>5643.24937698401</v>
@@ -5624,10 +7523,14 @@
       <c r="E39" t="s">
         <v>8</v>
       </c>
+      <c r="F39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="B40" t="n">
         <v>8.67276236291304</v>
@@ -5641,10 +7544,16 @@
       <c r="E40" t="s">
         <v>8</v>
       </c>
+      <c r="F40" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="B41" t="n">
         <v>31.878283744536</v>
@@ -5658,10 +7567,16 @@
       <c r="E41" t="s">
         <v>8</v>
       </c>
+      <c r="F41" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B42" t="n">
         <v>555.207464800912</v>
@@ -5675,10 +7590,16 @@
       <c r="E42" t="s">
         <v>8</v>
       </c>
+      <c r="F42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="B43" t="n">
         <v>0.0801035993362073</v>
@@ -5692,10 +7613,16 @@
       <c r="E43" t="s">
         <v>8</v>
       </c>
+      <c r="F43" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="B44" t="n">
         <v>0.125690249255751</v>
@@ -5709,10 +7636,16 @@
       <c r="E44" t="s">
         <v>8</v>
       </c>
+      <c r="F44" t="s">
+        <v>101</v>
+      </c>
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="B45" t="n">
         <v>0.892536484116012</v>
@@ -5726,10 +7659,16 @@
       <c r="E45" t="s">
         <v>8</v>
       </c>
+      <c r="F45" t="s">
+        <v>103</v>
+      </c>
+      <c r="G45" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="B46" t="n">
         <v>1.45563961899046</v>
@@ -5743,10 +7682,16 @@
       <c r="E46" t="s">
         <v>8</v>
       </c>
+      <c r="F46" t="s">
+        <v>105</v>
+      </c>
+      <c r="G46" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="B47" t="n">
         <v>1.13512872317605</v>
@@ -5760,10 +7705,16 @@
       <c r="E47" t="s">
         <v>8</v>
       </c>
+      <c r="F47" t="s">
+        <v>107</v>
+      </c>
+      <c r="G47" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B48" t="n">
         <v>1.49577720132975</v>
@@ -5777,10 +7728,16 @@
       <c r="E48" t="s">
         <v>8</v>
       </c>
+      <c r="F48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="B49" t="n">
         <v>1118.03887540955</v>
@@ -5794,10 +7751,16 @@
       <c r="E49" t="s">
         <v>8</v>
       </c>
+      <c r="F49" t="s">
+        <v>111</v>
+      </c>
+      <c r="G49" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="B50" t="n">
         <v>14.9898047361036</v>
@@ -5811,10 +7774,16 @@
       <c r="E50" t="s">
         <v>8</v>
       </c>
+      <c r="F50" t="s">
+        <v>112</v>
+      </c>
+      <c r="G50" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="B51" t="n">
         <v>10395.0961944489</v>
@@ -5828,10 +7797,16 @@
       <c r="E51" t="s">
         <v>8</v>
       </c>
+      <c r="F51" t="s">
+        <v>113</v>
+      </c>
+      <c r="G51" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="B52" t="n">
         <v>0.497318831596282</v>
@@ -5845,10 +7820,16 @@
       <c r="E52" t="s">
         <v>8</v>
       </c>
+      <c r="F52" t="s">
+        <v>115</v>
+      </c>
+      <c r="G52" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="B53" t="n">
         <v>102.479895575603</v>
@@ -5862,10 +7843,16 @@
       <c r="E53" t="s">
         <v>8</v>
       </c>
+      <c r="F53" t="s">
+        <v>117</v>
+      </c>
+      <c r="G53" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="B54" t="n">
         <v>0.554742199839609</v>
@@ -5879,10 +7866,16 @@
       <c r="E54" t="s">
         <v>8</v>
       </c>
+      <c r="F54" t="s">
+        <v>119</v>
+      </c>
+      <c r="G54" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="B55" t="n">
         <v>134.105479527395</v>
@@ -5896,10 +7889,16 @@
       <c r="E55" t="s">
         <v>8</v>
       </c>
+      <c r="F55" t="s">
+        <v>120</v>
+      </c>
+      <c r="G55" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="B56" t="n">
         <v>14.6168930817246</v>
@@ -5913,10 +7912,16 @@
       <c r="E56" t="s">
         <v>8</v>
       </c>
+      <c r="F56" t="s">
+        <v>122</v>
+      </c>
+      <c r="G56" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="B57" t="n">
         <v>774.60861108322</v>
@@ -5930,10 +7935,16 @@
       <c r="E57" t="s">
         <v>8</v>
       </c>
+      <c r="F57" t="s">
+        <v>124</v>
+      </c>
+      <c r="G57" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="B58" t="n">
         <v>7.61810381065916</v>
@@ -5947,10 +7958,16 @@
       <c r="E58" t="s">
         <v>8</v>
       </c>
+      <c r="F58" t="s">
+        <v>126</v>
+      </c>
+      <c r="G58" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="B59" t="n">
         <v>115.018937705274</v>
@@ -5964,10 +7981,16 @@
       <c r="E59" t="s">
         <v>8</v>
       </c>
+      <c r="F59" t="s">
+        <v>128</v>
+      </c>
+      <c r="G59" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="B60" t="n">
         <v>201.050942195873</v>
@@ -5981,10 +8004,16 @@
       <c r="E60" t="s">
         <v>8</v>
       </c>
+      <c r="F60" t="s">
+        <v>130</v>
+      </c>
+      <c r="G60" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="B61" t="n">
         <v>0.146097152372979</v>
@@ -5998,10 +8027,16 @@
       <c r="E61" t="s">
         <v>8</v>
       </c>
+      <c r="F61" t="s">
+        <v>132</v>
+      </c>
+      <c r="G61" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="B62" t="n">
         <v>6.99230218154337</v>
@@ -6015,10 +8050,16 @@
       <c r="E62" t="s">
         <v>8</v>
       </c>
+      <c r="F62" t="s">
+        <v>134</v>
+      </c>
+      <c r="G62" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="B63" t="n">
         <v>6418.35819482959</v>
@@ -6032,10 +8073,14 @@
       <c r="E63" t="s">
         <v>8</v>
       </c>
+      <c r="F63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="B64" t="n">
         <v>2.81625164535793</v>
@@ -6049,10 +8094,16 @@
       <c r="E64" t="s">
         <v>8</v>
       </c>
+      <c r="F64" t="s">
+        <v>138</v>
+      </c>
+      <c r="G64" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="B65" t="n">
         <v>0.888307845926999</v>
@@ -6066,10 +8117,16 @@
       <c r="E65" t="s">
         <v>8</v>
       </c>
+      <c r="F65" t="s">
+        <v>140</v>
+      </c>
+      <c r="G65" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="B66" t="n">
         <v>9.70773929829122</v>
@@ -6083,10 +8140,16 @@
       <c r="E66" t="s">
         <v>8</v>
       </c>
+      <c r="F66" t="s">
+        <v>142</v>
+      </c>
+      <c r="G66" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="B67" t="n">
         <v>108.217071940086</v>
@@ -6100,10 +8163,16 @@
       <c r="E67" t="s">
         <v>8</v>
       </c>
+      <c r="F67" t="s">
+        <v>144</v>
+      </c>
+      <c r="G67" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="B68" t="n">
         <v>44.1636410956324</v>
@@ -6117,10 +8186,16 @@
       <c r="E68" t="s">
         <v>8</v>
       </c>
+      <c r="F68" t="s">
+        <v>146</v>
+      </c>
+      <c r="G68" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="B69" t="n">
         <v>1.2455798562259</v>
@@ -6134,10 +8209,16 @@
       <c r="E69" t="s">
         <v>8</v>
       </c>
+      <c r="F69" t="s">
+        <v>147</v>
+      </c>
+      <c r="G69" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="B70" t="n">
         <v>8.45785803508667</v>
@@ -6151,10 +8232,16 @@
       <c r="E70" t="s">
         <v>8</v>
       </c>
+      <c r="F70" t="s">
+        <v>149</v>
+      </c>
+      <c r="G70" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="B71" t="n">
         <v>593.700151338257</v>
@@ -6168,10 +8255,16 @@
       <c r="E71" t="s">
         <v>8</v>
       </c>
+      <c r="F71" t="s">
+        <v>151</v>
+      </c>
+      <c r="G71" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="B72" t="n">
         <v>0.462370581088736</v>
@@ -6185,10 +8278,16 @@
       <c r="E72" t="s">
         <v>8</v>
       </c>
+      <c r="F72" t="s">
+        <v>153</v>
+      </c>
+      <c r="G72" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="B73" t="n">
         <v>0.289276515476802</v>
@@ -6202,10 +8301,16 @@
       <c r="E73" t="s">
         <v>8</v>
       </c>
+      <c r="F73" t="s">
+        <v>154</v>
+      </c>
+      <c r="G73" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="B74" t="n">
         <v>0.0432187631561686</v>
@@ -6219,10 +8324,16 @@
       <c r="E74" t="s">
         <v>8</v>
       </c>
+      <c r="F74" t="s">
+        <v>155</v>
+      </c>
+      <c r="G74" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="B75" t="n">
         <v>0.330347006670545</v>
@@ -6236,10 +8347,16 @@
       <c r="E75" t="s">
         <v>8</v>
       </c>
+      <c r="F75" t="s">
+        <v>156</v>
+      </c>
+      <c r="G75" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="B76" t="n">
         <v>57.8272374492849</v>
@@ -6253,10 +8370,16 @@
       <c r="E76" t="s">
         <v>8</v>
       </c>
+      <c r="F76" t="s">
+        <v>158</v>
+      </c>
+      <c r="G76" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="B77" t="n">
         <v>1112.09699357844</v>
@@ -6270,10 +8393,16 @@
       <c r="E77" t="s">
         <v>8</v>
       </c>
+      <c r="F77" t="s">
+        <v>160</v>
+      </c>
+      <c r="G77" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="B78" t="n">
         <v>138.862559902351</v>
@@ -6287,10 +8416,16 @@
       <c r="E78" t="s">
         <v>8</v>
       </c>
+      <c r="F78" t="s">
+        <v>162</v>
+      </c>
+      <c r="G78" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="B79" t="n">
         <v>0.148282165621703</v>
@@ -6304,10 +8439,16 @@
       <c r="E79" t="s">
         <v>8</v>
       </c>
+      <c r="F79" t="s">
+        <v>164</v>
+      </c>
+      <c r="G79" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="B80" t="n">
         <v>595.045777293287</v>
@@ -6321,10 +8462,16 @@
       <c r="E80" t="s">
         <v>8</v>
       </c>
+      <c r="F80" t="s">
+        <v>166</v>
+      </c>
+      <c r="G80" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="B81" t="n">
         <v>175.135370263771</v>
@@ -6338,10 +8485,16 @@
       <c r="E81" t="s">
         <v>8</v>
       </c>
+      <c r="F81" t="s">
+        <v>168</v>
+      </c>
+      <c r="G81" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="B82" t="n">
         <v>0.43894991731247</v>
@@ -6355,10 +8508,16 @@
       <c r="E82" t="s">
         <v>8</v>
       </c>
+      <c r="F82" t="s">
+        <v>169</v>
+      </c>
+      <c r="G82" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="B83" t="n">
         <v>0.162345970020801</v>
@@ -6372,10 +8531,16 @@
       <c r="E83" t="s">
         <v>8</v>
       </c>
+      <c r="F83" t="s">
+        <v>171</v>
+      </c>
+      <c r="G83" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="B84" t="n">
         <v>36078.4733069776</v>
@@ -6389,10 +8554,14 @@
       <c r="E84" t="s">
         <v>8</v>
       </c>
+      <c r="F84" t="s">
+        <v>173</v>
+      </c>
+      <c r="G84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="B85" t="n">
         <v>9382.75199997552</v>
@@ -6406,10 +8575,14 @@
       <c r="E85" t="s">
         <v>8</v>
       </c>
+      <c r="F85" t="s">
+        <v>175</v>
+      </c>
+      <c r="G85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="B86" t="n">
         <v>330.765163896344</v>
@@ -6423,10 +8596,14 @@
       <c r="E86" t="s">
         <v>8</v>
       </c>
+      <c r="F86" t="s">
+        <v>177</v>
+      </c>
+      <c r="G86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="B87" t="n">
         <v>477.836433425312</v>
@@ -6440,10 +8617,16 @@
       <c r="E87" t="s">
         <v>8</v>
       </c>
+      <c r="F87" t="s">
+        <v>179</v>
+      </c>
+      <c r="G87" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="B88" t="n">
         <v>1.01154896342498</v>
@@ -6457,10 +8640,16 @@
       <c r="E88" t="s">
         <v>8</v>
       </c>
+      <c r="F88" t="s">
+        <v>180</v>
+      </c>
+      <c r="G88" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="B89" t="n">
         <v>0.832249851740491</v>
@@ -6474,10 +8663,16 @@
       <c r="E89" t="s">
         <v>8</v>
       </c>
+      <c r="F89" t="s">
+        <v>182</v>
+      </c>
+      <c r="G89" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="B90" t="n">
         <v>1.38214969169834</v>
@@ -6491,10 +8686,14 @@
       <c r="E90" t="s">
         <v>8</v>
       </c>
+      <c r="F90" t="s">
+        <v>184</v>
+      </c>
+      <c r="G90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="B91" t="n">
         <v>0.352405297176001</v>
@@ -6508,10 +8707,16 @@
       <c r="E91" t="s">
         <v>8</v>
       </c>
+      <c r="F91" t="s">
+        <v>185</v>
+      </c>
+      <c r="G91" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="B92" t="n">
         <v>5.86020888498124</v>
@@ -6525,10 +8730,14 @@
       <c r="E92" t="s">
         <v>8</v>
       </c>
+      <c r="F92" t="s">
+        <v>186</v>
+      </c>
+      <c r="G92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>112</v>
+        <v>187</v>
       </c>
       <c r="B93" t="n">
         <v>108.000299529432</v>
@@ -6542,10 +8751,16 @@
       <c r="E93" t="s">
         <v>8</v>
       </c>
+      <c r="F93" t="s">
+        <v>188</v>
+      </c>
+      <c r="G93" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="B94" t="n">
         <v>5.16845885165213</v>
@@ -6559,10 +8774,16 @@
       <c r="E94" t="s">
         <v>8</v>
       </c>
+      <c r="F94" t="s">
+        <v>190</v>
+      </c>
+      <c r="G94" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="B95" t="n">
         <v>938.740833436177</v>
@@ -6576,10 +8797,14 @@
       <c r="E95" t="s">
         <v>8</v>
       </c>
+      <c r="F95" t="s">
+        <v>192</v>
+      </c>
+      <c r="G95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="B96" t="n">
         <v>29.4174516979507</v>
@@ -6593,10 +8818,16 @@
       <c r="E96" t="s">
         <v>8</v>
       </c>
+      <c r="F96" t="s">
+        <v>194</v>
+      </c>
+      <c r="G96" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="B97" t="n">
         <v>1.12822574454691</v>
@@ -6610,10 +8841,16 @@
       <c r="E97" t="s">
         <v>8</v>
       </c>
+      <c r="F97" t="s">
+        <v>196</v>
+      </c>
+      <c r="G97" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="B98" t="n">
         <v>2.84618037119554</v>
@@ -6627,10 +8864,16 @@
       <c r="E98" t="s">
         <v>8</v>
       </c>
+      <c r="F98" t="s">
+        <v>198</v>
+      </c>
+      <c r="G98" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="B99" t="n">
         <v>453.325143980653</v>
@@ -6644,10 +8887,16 @@
       <c r="E99" t="s">
         <v>8</v>
       </c>
+      <c r="F99" t="s">
+        <v>199</v>
+      </c>
+      <c r="G99" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="B100" t="n">
         <v>0.00745809574717051</v>
@@ -6661,10 +8910,16 @@
       <c r="E100" t="s">
         <v>8</v>
       </c>
+      <c r="F100" t="s">
+        <v>201</v>
+      </c>
+      <c r="G100" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
       <c r="B101" t="n">
         <v>35.6683616982254</v>
@@ -6678,10 +8933,16 @@
       <c r="E101" t="s">
         <v>8</v>
       </c>
+      <c r="F101" t="s">
+        <v>203</v>
+      </c>
+      <c r="G101" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="B102" t="n">
         <v>1.80696731878331</v>
@@ -6695,10 +8956,16 @@
       <c r="E102" t="s">
         <v>8</v>
       </c>
+      <c r="F102" t="s">
+        <v>205</v>
+      </c>
+      <c r="G102" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="B103" t="n">
         <v>111.517518464935</v>
@@ -6712,10 +8979,16 @@
       <c r="E103" t="s">
         <v>8</v>
       </c>
+      <c r="F103" t="s">
+        <v>207</v>
+      </c>
+      <c r="G103" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="B104" t="n">
         <v>91.7739848766618</v>
@@ -6729,10 +9002,16 @@
       <c r="E104" t="s">
         <v>8</v>
       </c>
+      <c r="F104" t="s">
+        <v>209</v>
+      </c>
+      <c r="G104" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="B105" t="n">
         <v>0.918974637021856</v>
@@ -6746,10 +9025,16 @@
       <c r="E105" t="s">
         <v>8</v>
       </c>
+      <c r="F105" t="s">
+        <v>211</v>
+      </c>
+      <c r="G105" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="B106" t="n">
         <v>0.0291174932790387</v>
@@ -6763,10 +9048,16 @@
       <c r="E106" t="s">
         <v>8</v>
       </c>
+      <c r="F106" t="s">
+        <v>213</v>
+      </c>
+      <c r="G106" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="B107" t="n">
         <v>1080.66132788281</v>
@@ -6780,10 +9071,16 @@
       <c r="E107" t="s">
         <v>8</v>
       </c>
+      <c r="F107" t="s">
+        <v>215</v>
+      </c>
+      <c r="G107" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="B108" t="n">
         <v>333.071593689784</v>
@@ -6797,10 +9094,16 @@
       <c r="E108" t="s">
         <v>8</v>
       </c>
+      <c r="F108" t="s">
+        <v>217</v>
+      </c>
+      <c r="G108" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="B109" t="n">
         <v>325.510534609034</v>
@@ -6814,10 +9117,16 @@
       <c r="E109" t="s">
         <v>8</v>
       </c>
+      <c r="F109" t="s">
+        <v>218</v>
+      </c>
+      <c r="G109" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="B110" t="n">
         <v>1.91001036632897</v>
@@ -6831,10 +9140,16 @@
       <c r="E110" t="s">
         <v>8</v>
       </c>
+      <c r="F110" t="s">
+        <v>220</v>
+      </c>
+      <c r="G110" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="B111" t="n">
         <v>1084.78361082566</v>
@@ -6848,10 +9163,16 @@
       <c r="E111" t="s">
         <v>8</v>
       </c>
+      <c r="F111" t="s">
+        <v>222</v>
+      </c>
+      <c r="G111" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="B112" t="n">
         <v>0.0486699881133514</v>
@@ -6865,10 +9186,16 @@
       <c r="E112" t="s">
         <v>8</v>
       </c>
+      <c r="F112" t="s">
+        <v>224</v>
+      </c>
+      <c r="G112" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="B113" t="n">
         <v>5.59795066250032</v>
@@ -6882,10 +9209,16 @@
       <c r="E113" t="s">
         <v>8</v>
       </c>
+      <c r="F113" t="s">
+        <v>226</v>
+      </c>
+      <c r="G113" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>133</v>
+        <v>227</v>
       </c>
       <c r="B114" t="n">
         <v>142.245322563949</v>
@@ -6899,10 +9232,16 @@
       <c r="E114" t="s">
         <v>8</v>
       </c>
+      <c r="F114" t="s">
+        <v>228</v>
+      </c>
+      <c r="G114" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c r="B115" t="n">
         <v>0.155556011646304</v>
@@ -6916,10 +9255,16 @@
       <c r="E115" t="s">
         <v>8</v>
       </c>
+      <c r="F115" t="s">
+        <v>230</v>
+      </c>
+      <c r="G115" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="B116" t="n">
         <v>299.114559214356</v>
@@ -6933,10 +9278,14 @@
       <c r="E116" t="s">
         <v>8</v>
       </c>
+      <c r="F116" t="s">
+        <v>232</v>
+      </c>
+      <c r="G116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="B117" t="n">
         <v>9.39873178595413</v>
@@ -6950,10 +9299,16 @@
       <c r="E117" t="s">
         <v>8</v>
       </c>
+      <c r="F117" t="s">
+        <v>234</v>
+      </c>
+      <c r="G117" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="B118" t="n">
         <v>0.00933476100636318</v>
@@ -6967,10 +9322,16 @@
       <c r="E118" t="s">
         <v>8</v>
       </c>
+      <c r="F118" t="s">
+        <v>236</v>
+      </c>
+      <c r="G118" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>138</v>
+        <v>237</v>
       </c>
       <c r="B119" t="n">
         <v>100.474097320752</v>
@@ -6984,10 +9345,16 @@
       <c r="E119" t="s">
         <v>8</v>
       </c>
+      <c r="F119" t="s">
+        <v>237</v>
+      </c>
+      <c r="G119" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>139</v>
+        <v>238</v>
       </c>
       <c r="B120" t="n">
         <v>2.55191918596326</v>
@@ -7001,10 +9368,16 @@
       <c r="E120" t="s">
         <v>8</v>
       </c>
+      <c r="F120" t="s">
+        <v>238</v>
+      </c>
+      <c r="G120" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>140</v>
+        <v>239</v>
       </c>
       <c r="B121" t="n">
         <v>306.478207040456</v>
@@ -7018,10 +9391,16 @@
       <c r="E121" t="s">
         <v>8</v>
       </c>
+      <c r="F121" t="s">
+        <v>240</v>
+      </c>
+      <c r="G121" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="B122" t="n">
         <v>452.18855974103</v>
@@ -7035,10 +9414,16 @@
       <c r="E122" t="s">
         <v>8</v>
       </c>
+      <c r="F122" t="s">
+        <v>242</v>
+      </c>
+      <c r="G122" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c r="B123" t="n">
         <v>1055.74566005231</v>
@@ -7052,10 +9437,16 @@
       <c r="E123" t="s">
         <v>8</v>
       </c>
+      <c r="F123" t="s">
+        <v>244</v>
+      </c>
+      <c r="G123" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>143</v>
+        <v>245</v>
       </c>
       <c r="B124" t="n">
         <v>11.0856109460032</v>
@@ -7069,10 +9460,16 @@
       <c r="E124" t="s">
         <v>8</v>
       </c>
+      <c r="F124" t="s">
+        <v>246</v>
+      </c>
+      <c r="G124" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>144</v>
+        <v>247</v>
       </c>
       <c r="B125" t="n">
         <v>0.087912964308066</v>
@@ -7086,10 +9483,16 @@
       <c r="E125" t="s">
         <v>8</v>
       </c>
+      <c r="F125" t="s">
+        <v>248</v>
+      </c>
+      <c r="G125" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="B126" t="n">
         <v>711.145345430558</v>
@@ -7103,10 +9506,16 @@
       <c r="E126" t="s">
         <v>8</v>
       </c>
+      <c r="F126" t="s">
+        <v>250</v>
+      </c>
+      <c r="G126" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="B127" t="n">
         <v>3.29542190928825</v>
@@ -7120,10 +9529,16 @@
       <c r="E127" t="s">
         <v>8</v>
       </c>
+      <c r="F127" t="s">
+        <v>252</v>
+      </c>
+      <c r="G127" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>147</v>
+        <v>253</v>
       </c>
       <c r="B128" t="n">
         <v>0.102420342727495</v>
@@ -7137,10 +9552,14 @@
       <c r="E128" t="s">
         <v>8</v>
       </c>
+      <c r="F128" t="s">
+        <v>253</v>
+      </c>
+      <c r="G128"/>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>148</v>
+        <v>254</v>
       </c>
       <c r="B129" t="n">
         <v>0.832952728079817</v>
@@ -7154,10 +9573,16 @@
       <c r="E129" t="s">
         <v>8</v>
       </c>
+      <c r="F129" t="s">
+        <v>255</v>
+      </c>
+      <c r="G129" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="B130" t="n">
         <v>1222.09000944549</v>
@@ -7171,10 +9596,16 @@
       <c r="E130" t="s">
         <v>8</v>
       </c>
+      <c r="F130" t="s">
+        <v>257</v>
+      </c>
+      <c r="G130" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="B131" t="n">
         <v>9437.49057806558</v>
@@ -7188,10 +9619,14 @@
       <c r="E131" t="s">
         <v>8</v>
       </c>
+      <c r="F131" t="s">
+        <v>259</v>
+      </c>
+      <c r="G131"/>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="B132" t="n">
         <v>0.0137800755420394</v>
@@ -7205,10 +9640,16 @@
       <c r="E132" t="s">
         <v>8</v>
       </c>
+      <c r="F132" t="s">
+        <v>261</v>
+      </c>
+      <c r="G132" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>152</v>
+        <v>262</v>
       </c>
       <c r="B133" t="n">
         <v>10.4263814246141</v>
@@ -7222,10 +9663,16 @@
       <c r="E133" t="s">
         <v>8</v>
       </c>
+      <c r="F133" t="s">
+        <v>262</v>
+      </c>
+      <c r="G133" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>153</v>
+        <v>263</v>
       </c>
       <c r="B134" t="n">
         <v>0.0697143871745412</v>
@@ -7239,10 +9686,16 @@
       <c r="E134" t="s">
         <v>8</v>
       </c>
+      <c r="F134" t="s">
+        <v>263</v>
+      </c>
+      <c r="G134" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>154</v>
+        <v>264</v>
       </c>
       <c r="B135" t="n">
         <v>0.557923910619733</v>
@@ -7256,10 +9709,14 @@
       <c r="E135" t="s">
         <v>8</v>
       </c>
+      <c r="F135" t="s">
+        <v>265</v>
+      </c>
+      <c r="G135"/>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>155</v>
+        <v>266</v>
       </c>
       <c r="B136" t="n">
         <v>1.38099612771059</v>
@@ -7273,10 +9730,16 @@
       <c r="E136" t="s">
         <v>8</v>
       </c>
+      <c r="F136" t="s">
+        <v>267</v>
+      </c>
+      <c r="G136" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>156</v>
+        <v>268</v>
       </c>
       <c r="B137" t="n">
         <v>7588.92468083091</v>
@@ -7290,10 +9753,14 @@
       <c r="E137" t="s">
         <v>8</v>
       </c>
+      <c r="F137" t="s">
+        <v>269</v>
+      </c>
+      <c r="G137"/>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>157</v>
+        <v>270</v>
       </c>
       <c r="B138" t="n">
         <v>0.36848009091474</v>
@@ -7307,10 +9774,16 @@
       <c r="E138" t="s">
         <v>8</v>
       </c>
+      <c r="F138" t="s">
+        <v>271</v>
+      </c>
+      <c r="G138" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>158</v>
+        <v>272</v>
       </c>
       <c r="B139" t="n">
         <v>7.50001511793001</v>
@@ -7324,10 +9797,16 @@
       <c r="E139" t="s">
         <v>8</v>
       </c>
+      <c r="F139" t="s">
+        <v>272</v>
+      </c>
+      <c r="G139" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>159</v>
+        <v>273</v>
       </c>
       <c r="B140" t="n">
         <v>1.3295993648528</v>
@@ -7341,10 +9820,16 @@
       <c r="E140" t="s">
         <v>8</v>
       </c>
+      <c r="F140" t="s">
+        <v>274</v>
+      </c>
+      <c r="G140" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>160</v>
+        <v>275</v>
       </c>
       <c r="B141" t="n">
         <v>275.581734238229</v>
@@ -7358,10 +9843,16 @@
       <c r="E141" t="s">
         <v>8</v>
       </c>
+      <c r="F141" t="s">
+        <v>276</v>
+      </c>
+      <c r="G141" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>161</v>
+        <v>277</v>
       </c>
       <c r="B142" t="n">
         <v>13.1832584771423</v>
@@ -7375,10 +9866,16 @@
       <c r="E142" t="s">
         <v>8</v>
       </c>
+      <c r="F142" t="s">
+        <v>278</v>
+      </c>
+      <c r="G142" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>162</v>
+        <v>279</v>
       </c>
       <c r="B143" t="n">
         <v>387.253488951615</v>
@@ -7392,10 +9889,16 @@
       <c r="E143" t="s">
         <v>8</v>
       </c>
+      <c r="F143" t="s">
+        <v>280</v>
+      </c>
+      <c r="G143" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>163</v>
+        <v>281</v>
       </c>
       <c r="B144" t="n">
         <v>1418.54922309963</v>
@@ -7409,10 +9912,14 @@
       <c r="E144" t="s">
         <v>8</v>
       </c>
+      <c r="F144" t="s">
+        <v>282</v>
+      </c>
+      <c r="G144"/>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>164</v>
+        <v>283</v>
       </c>
       <c r="B145" t="n">
         <v>4.33285038921063</v>
@@ -7426,10 +9933,14 @@
       <c r="E145" t="s">
         <v>8</v>
       </c>
+      <c r="F145" t="s">
+        <v>284</v>
+      </c>
+      <c r="G145"/>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>165</v>
+        <v>285</v>
       </c>
       <c r="B146" t="n">
         <v>0.796554390404308</v>
@@ -7443,10 +9954,16 @@
       <c r="E146" t="s">
         <v>8</v>
       </c>
+      <c r="F146" t="s">
+        <v>286</v>
+      </c>
+      <c r="G146" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>166</v>
+        <v>287</v>
       </c>
       <c r="B147" t="n">
         <v>0.827457637674127</v>
@@ -7460,10 +9977,16 @@
       <c r="E147" t="s">
         <v>8</v>
       </c>
+      <c r="F147" t="s">
+        <v>287</v>
+      </c>
+      <c r="G147" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>167</v>
+        <v>288</v>
       </c>
       <c r="B148" t="n">
         <v>1.92388905865694</v>
@@ -7477,10 +10000,16 @@
       <c r="E148" t="s">
         <v>8</v>
       </c>
+      <c r="F148" t="s">
+        <v>289</v>
+      </c>
+      <c r="G148" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>168</v>
+        <v>290</v>
       </c>
       <c r="B149" t="n">
         <v>43.7226360645224</v>
@@ -7494,10 +10023,16 @@
       <c r="E149" t="s">
         <v>8</v>
       </c>
+      <c r="F149" t="s">
+        <v>290</v>
+      </c>
+      <c r="G149" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>169</v>
+        <v>291</v>
       </c>
       <c r="B150" t="n">
         <v>1.28477034331687</v>
@@ -7511,10 +10046,16 @@
       <c r="E150" t="s">
         <v>8</v>
       </c>
+      <c r="F150" t="s">
+        <v>291</v>
+      </c>
+      <c r="G150" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>170</v>
+        <v>292</v>
       </c>
       <c r="B151" t="n">
         <v>8.9999608129304</v>
@@ -7528,10 +10069,16 @@
       <c r="E151" t="s">
         <v>8</v>
       </c>
+      <c r="F151" t="s">
+        <v>292</v>
+      </c>
+      <c r="G151" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>171</v>
+        <v>293</v>
       </c>
       <c r="B152" t="n">
         <v>29.3051361686457</v>
@@ -7545,10 +10092,14 @@
       <c r="E152" t="s">
         <v>8</v>
       </c>
+      <c r="F152" t="s">
+        <v>293</v>
+      </c>
+      <c r="G152"/>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>172</v>
+        <v>294</v>
       </c>
       <c r="B153" t="n">
         <v>163.763461263212</v>
@@ -7562,10 +10113,16 @@
       <c r="E153" t="s">
         <v>8</v>
       </c>
+      <c r="F153" t="s">
+        <v>295</v>
+      </c>
+      <c r="G153" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>173</v>
+        <v>296</v>
       </c>
       <c r="B154" t="n">
         <v>0.00955428178468575</v>
@@ -7579,10 +10136,16 @@
       <c r="E154" t="s">
         <v>8</v>
       </c>
+      <c r="F154" t="s">
+        <v>296</v>
+      </c>
+      <c r="G154" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>174</v>
+        <v>297</v>
       </c>
       <c r="B155" t="n">
         <v>0.0445583722977303</v>
@@ -7596,10 +10159,16 @@
       <c r="E155" t="s">
         <v>8</v>
       </c>
+      <c r="F155" t="s">
+        <v>297</v>
+      </c>
+      <c r="G155" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
       <c r="B156" t="n">
         <v>0.0125197082240462</v>
@@ -7613,10 +10182,16 @@
       <c r="E156" t="s">
         <v>8</v>
       </c>
+      <c r="F156" t="s">
+        <v>298</v>
+      </c>
+      <c r="G156" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>176</v>
+        <v>299</v>
       </c>
       <c r="B157" t="n">
         <v>20.5062885465097</v>
@@ -7630,10 +10205,16 @@
       <c r="E157" t="s">
         <v>8</v>
       </c>
+      <c r="F157" t="s">
+        <v>300</v>
+      </c>
+      <c r="G157" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>177</v>
+        <v>301</v>
       </c>
       <c r="B158" t="n">
         <v>0.0583421801965072</v>
@@ -7647,10 +10228,16 @@
       <c r="E158" t="s">
         <v>8</v>
       </c>
+      <c r="F158" t="s">
+        <v>302</v>
+      </c>
+      <c r="G158" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>178</v>
+        <v>303</v>
       </c>
       <c r="B159" t="n">
         <v>3.03640948457321</v>
@@ -7664,10 +10251,16 @@
       <c r="E159" t="s">
         <v>8</v>
       </c>
+      <c r="F159" t="s">
+        <v>304</v>
+      </c>
+      <c r="G159" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>179</v>
+        <v>305</v>
       </c>
       <c r="B160" t="n">
         <v>199.931523882354</v>
@@ -7681,10 +10274,16 @@
       <c r="E160" t="s">
         <v>8</v>
       </c>
+      <c r="F160" t="s">
+        <v>306</v>
+      </c>
+      <c r="G160" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>180</v>
+        <v>307</v>
       </c>
       <c r="B161" t="n">
         <v>313.174426119205</v>
@@ -7698,10 +10297,16 @@
       <c r="E161" t="s">
         <v>8</v>
       </c>
+      <c r="F161" t="s">
+        <v>308</v>
+      </c>
+      <c r="G161" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>181</v>
+        <v>309</v>
       </c>
       <c r="B162" t="n">
         <v>46.50745857126</v>
@@ -7715,10 +10320,16 @@
       <c r="E162" t="s">
         <v>8</v>
       </c>
+      <c r="F162" t="s">
+        <v>310</v>
+      </c>
+      <c r="G162" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>182</v>
+        <v>311</v>
       </c>
       <c r="B163" t="n">
         <v>0.513107380182703</v>
@@ -7732,10 +10343,16 @@
       <c r="E163" t="s">
         <v>8</v>
       </c>
+      <c r="F163" t="s">
+        <v>312</v>
+      </c>
+      <c r="G163" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>183</v>
+        <v>313</v>
       </c>
       <c r="B164" t="n">
         <v>237.258089041591</v>
@@ -7749,10 +10366,16 @@
       <c r="E164" t="s">
         <v>8</v>
       </c>
+      <c r="F164" t="s">
+        <v>314</v>
+      </c>
+      <c r="G164" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>184</v>
+        <v>315</v>
       </c>
       <c r="B165" t="n">
         <v>0.806420789517635</v>
@@ -7766,10 +10389,16 @@
       <c r="E165" t="s">
         <v>8</v>
       </c>
+      <c r="F165" t="s">
+        <v>316</v>
+      </c>
+      <c r="G165" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>185</v>
+        <v>317</v>
       </c>
       <c r="B166" t="n">
         <v>6.0461920970169</v>
@@ -7783,10 +10412,16 @@
       <c r="E166" t="s">
         <v>8</v>
       </c>
+      <c r="F166" t="s">
+        <v>318</v>
+      </c>
+      <c r="G166" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>186</v>
+        <v>319</v>
       </c>
       <c r="B167" t="n">
         <v>0.542641945483834</v>
@@ -7800,10 +10435,16 @@
       <c r="E167" t="s">
         <v>8</v>
       </c>
+      <c r="F167" t="s">
+        <v>320</v>
+      </c>
+      <c r="G167" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>187</v>
+        <v>321</v>
       </c>
       <c r="B168" t="n">
         <v>42.2692724267563</v>
@@ -7817,10 +10458,16 @@
       <c r="E168" t="s">
         <v>8</v>
       </c>
+      <c r="F168" t="s">
+        <v>321</v>
+      </c>
+      <c r="G168" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>188</v>
+        <v>322</v>
       </c>
       <c r="B169" t="n">
         <v>3554.97815957517</v>
@@ -7834,10 +10481,16 @@
       <c r="E169" t="s">
         <v>8</v>
       </c>
+      <c r="F169" t="s">
+        <v>323</v>
+      </c>
+      <c r="G169" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>189</v>
+        <v>324</v>
       </c>
       <c r="B170" t="n">
         <v>749.19820791248</v>
@@ -7851,10 +10504,14 @@
       <c r="E170" t="s">
         <v>8</v>
       </c>
+      <c r="F170" t="s">
+        <v>325</v>
+      </c>
+      <c r="G170"/>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>190</v>
+        <v>326</v>
       </c>
       <c r="B171" t="n">
         <v>745.113602262047</v>
@@ -7868,10 +10525,16 @@
       <c r="E171" t="s">
         <v>8</v>
       </c>
+      <c r="F171" t="s">
+        <v>327</v>
+      </c>
+      <c r="G171" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>191</v>
+        <v>328</v>
       </c>
       <c r="B172" t="n">
         <v>4.68351261154771</v>
@@ -7885,10 +10548,16 @@
       <c r="E172" t="s">
         <v>8</v>
       </c>
+      <c r="F172" t="s">
+        <v>329</v>
+      </c>
+      <c r="G172" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>192</v>
+        <v>330</v>
       </c>
       <c r="B173" t="n">
         <v>17.18907321533</v>
@@ -7902,10 +10571,16 @@
       <c r="E173" t="s">
         <v>8</v>
       </c>
+      <c r="F173" t="s">
+        <v>331</v>
+      </c>
+      <c r="G173" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>193</v>
+        <v>332</v>
       </c>
       <c r="B174" t="n">
         <v>968.692964149442</v>
@@ -7919,10 +10594,16 @@
       <c r="E174" t="s">
         <v>8</v>
       </c>
+      <c r="F174" t="s">
+        <v>333</v>
+      </c>
+      <c r="G174" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>194</v>
+        <v>334</v>
       </c>
       <c r="B175" t="n">
         <v>10.6103513990368</v>
@@ -7936,10 +10617,16 @@
       <c r="E175" t="s">
         <v>8</v>
       </c>
+      <c r="F175" t="s">
+        <v>335</v>
+      </c>
+      <c r="G175" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>195</v>
+        <v>336</v>
       </c>
       <c r="B176" t="n">
         <v>0.786021725779158</v>
@@ -7953,10 +10640,14 @@
       <c r="E176" t="s">
         <v>8</v>
       </c>
+      <c r="F176" t="s">
+        <v>337</v>
+      </c>
+      <c r="G176"/>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>196</v>
+        <v>338</v>
       </c>
       <c r="B177" t="n">
         <v>0.995355748832648</v>
@@ -7970,10 +10661,16 @@
       <c r="E177" t="s">
         <v>8</v>
       </c>
+      <c r="F177" t="s">
+        <v>339</v>
+      </c>
+      <c r="G177" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>197</v>
+        <v>340</v>
       </c>
       <c r="B178" t="n">
         <v>318.422405450055</v>
@@ -7987,10 +10684,16 @@
       <c r="E178" t="s">
         <v>8</v>
       </c>
+      <c r="F178" t="s">
+        <v>340</v>
+      </c>
+      <c r="G178" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>198</v>
+        <v>341</v>
       </c>
       <c r="B179" t="n">
         <v>2.16869092872025</v>
@@ -8004,10 +10707,16 @@
       <c r="E179" t="s">
         <v>8</v>
       </c>
+      <c r="F179" t="s">
+        <v>341</v>
+      </c>
+      <c r="G179" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>199</v>
+        <v>342</v>
       </c>
       <c r="B180" t="n">
         <v>190.023825674652</v>
@@ -8021,10 +10730,16 @@
       <c r="E180" t="s">
         <v>8</v>
       </c>
+      <c r="F180" t="s">
+        <v>343</v>
+      </c>
+      <c r="G180" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>200</v>
+        <v>344</v>
       </c>
       <c r="B181" t="n">
         <v>172.039587558404</v>
@@ -8038,10 +10753,16 @@
       <c r="E181" t="s">
         <v>8</v>
       </c>
+      <c r="F181" t="s">
+        <v>345</v>
+      </c>
+      <c r="G181" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>201</v>
+        <v>346</v>
       </c>
       <c r="B182" t="n">
         <v>55.7793627676721</v>
@@ -8055,10 +10776,16 @@
       <c r="E182" t="s">
         <v>8</v>
       </c>
+      <c r="F182" t="s">
+        <v>347</v>
+      </c>
+      <c r="G182" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>202</v>
+        <v>348</v>
       </c>
       <c r="B183" t="n">
         <v>399.433030865614</v>
@@ -8072,10 +10799,16 @@
       <c r="E183" t="s">
         <v>8</v>
       </c>
+      <c r="F183" t="s">
+        <v>349</v>
+      </c>
+      <c r="G183" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>203</v>
+        <v>350</v>
       </c>
       <c r="B184" t="n">
         <v>0.0193124215267827</v>
@@ -8089,10 +10822,16 @@
       <c r="E184" t="s">
         <v>8</v>
       </c>
+      <c r="F184" t="s">
+        <v>350</v>
+      </c>
+      <c r="G184" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>204</v>
+        <v>351</v>
       </c>
       <c r="B185" t="n">
         <v>0.154387698801568</v>
@@ -8106,10 +10845,16 @@
       <c r="E185" t="s">
         <v>8</v>
       </c>
+      <c r="F185" t="s">
+        <v>352</v>
+      </c>
+      <c r="G185" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>205</v>
+        <v>353</v>
       </c>
       <c r="B186" t="n">
         <v>0.615480436565734</v>
@@ -8123,10 +10868,16 @@
       <c r="E186" t="s">
         <v>8</v>
       </c>
+      <c r="F186" t="s">
+        <v>354</v>
+      </c>
+      <c r="G186" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>206</v>
+        <v>355</v>
       </c>
       <c r="B187" t="n">
         <v>15.8110198521837</v>
@@ -8140,10 +10891,16 @@
       <c r="E187" t="s">
         <v>8</v>
       </c>
+      <c r="F187" t="s">
+        <v>356</v>
+      </c>
+      <c r="G187" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>207</v>
+        <v>357</v>
       </c>
       <c r="B188" t="n">
         <v>1.1788806449509</v>
@@ -8157,10 +10914,16 @@
       <c r="E188" t="s">
         <v>8</v>
       </c>
+      <c r="F188" t="s">
+        <v>357</v>
+      </c>
+      <c r="G188" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>208</v>
+        <v>358</v>
       </c>
       <c r="B189" t="n">
         <v>0.428889888235389</v>
@@ -8174,10 +10937,16 @@
       <c r="E189" t="s">
         <v>8</v>
       </c>
+      <c r="F189" t="s">
+        <v>358</v>
+      </c>
+      <c r="G189" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>209</v>
+        <v>359</v>
       </c>
       <c r="B190" t="n">
         <v>333.807142564278</v>
@@ -8191,10 +10960,16 @@
       <c r="E190" t="s">
         <v>8</v>
       </c>
+      <c r="F190" t="s">
+        <v>360</v>
+      </c>
+      <c r="G190" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>210</v>
+        <v>361</v>
       </c>
       <c r="B191" t="n">
         <v>1596.43572854883</v>
@@ -8208,10 +10983,16 @@
       <c r="E191" t="s">
         <v>8</v>
       </c>
+      <c r="F191" t="s">
+        <v>362</v>
+      </c>
+      <c r="G191" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>211</v>
+        <v>363</v>
       </c>
       <c r="B192" t="n">
         <v>40.6118068557406</v>
@@ -8225,10 +11006,14 @@
       <c r="E192" t="s">
         <v>8</v>
       </c>
+      <c r="F192" t="s">
+        <v>363</v>
+      </c>
+      <c r="G192"/>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>212</v>
+        <v>364</v>
       </c>
       <c r="B193" t="n">
         <v>29.869775434004</v>
@@ -8242,10 +11027,16 @@
       <c r="E193" t="s">
         <v>8</v>
       </c>
+      <c r="F193" t="s">
+        <v>364</v>
+      </c>
+      <c r="G193" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>213</v>
+        <v>365</v>
       </c>
       <c r="B194" t="n">
         <v>10.3533354700522</v>
@@ -8259,10 +11050,14 @@
       <c r="E194" t="s">
         <v>8</v>
       </c>
+      <c r="F194" t="s">
+        <v>366</v>
+      </c>
+      <c r="G194"/>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>214</v>
+        <v>367</v>
       </c>
       <c r="B195" t="n">
         <v>1303.40524740666</v>
@@ -8276,10 +11071,16 @@
       <c r="E195" t="s">
         <v>8</v>
       </c>
+      <c r="F195" t="s">
+        <v>367</v>
+      </c>
+      <c r="G195" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>215</v>
+        <v>368</v>
       </c>
       <c r="B196" t="n">
         <v>0.935403102624198</v>
@@ -8293,10 +11094,16 @@
       <c r="E196" t="s">
         <v>8</v>
       </c>
+      <c r="F196" t="s">
+        <v>368</v>
+      </c>
+      <c r="G196" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>216</v>
+        <v>369</v>
       </c>
       <c r="B197" t="n">
         <v>123.982919498515</v>
@@ -8310,10 +11117,14 @@
       <c r="E197" t="s">
         <v>8</v>
       </c>
+      <c r="F197" t="s">
+        <v>369</v>
+      </c>
+      <c r="G197"/>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>217</v>
+        <v>370</v>
       </c>
       <c r="B198" t="n">
         <v>0.158858911302769</v>
@@ -8327,10 +11138,16 @@
       <c r="E198" t="s">
         <v>8</v>
       </c>
+      <c r="F198" t="s">
+        <v>371</v>
+      </c>
+      <c r="G198" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>218</v>
+        <v>372</v>
       </c>
       <c r="B199" t="n">
         <v>12.3861464472309</v>
@@ -8344,10 +11161,16 @@
       <c r="E199" t="s">
         <v>8</v>
       </c>
+      <c r="F199" t="s">
+        <v>373</v>
+      </c>
+      <c r="G199" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>219</v>
+        <v>374</v>
       </c>
       <c r="B200" t="n">
         <v>10.5402311755039</v>
@@ -8361,10 +11184,16 @@
       <c r="E200" t="s">
         <v>8</v>
       </c>
+      <c r="F200" t="s">
+        <v>375</v>
+      </c>
+      <c r="G200" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>220</v>
+        <v>376</v>
       </c>
       <c r="B201" t="n">
         <v>9.29610192167799</v>
@@ -8378,10 +11207,16 @@
       <c r="E201" t="s">
         <v>8</v>
       </c>
+      <c r="F201" t="s">
+        <v>377</v>
+      </c>
+      <c r="G201" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>221</v>
+        <v>378</v>
       </c>
       <c r="B202" t="n">
         <v>1190.80670795929</v>
@@ -8395,10 +11230,16 @@
       <c r="E202" t="s">
         <v>8</v>
       </c>
+      <c r="F202" t="s">
+        <v>379</v>
+      </c>
+      <c r="G202" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>222</v>
+        <v>380</v>
       </c>
       <c r="B203" t="n">
         <v>774.087788433726</v>
@@ -8412,10 +11253,16 @@
       <c r="E203" t="s">
         <v>8</v>
       </c>
+      <c r="F203" t="s">
+        <v>381</v>
+      </c>
+      <c r="G203" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>223</v>
+        <v>382</v>
       </c>
       <c r="B204" t="n">
         <v>759.929245658058</v>
@@ -8429,10 +11276,16 @@
       <c r="E204" t="s">
         <v>8</v>
       </c>
+      <c r="F204" t="s">
+        <v>383</v>
+      </c>
+      <c r="G204" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>224</v>
+        <v>384</v>
       </c>
       <c r="B205" t="n">
         <v>90.7777376951393</v>
@@ -8445,6 +11298,12 @@
       </c>
       <c r="E205" t="s">
         <v>8</v>
+      </c>
+      <c r="F205" t="s">
+        <v>385</v>
+      </c>
+      <c r="G205" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
